--- a/data/hotels_by_city/Dallas/Dallas_shard_229.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_229.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="784">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Becca B</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Jackie has extraordinary customer service skills. The room was immaculate and on the first floor like I asked for due to my asthma. Extended Stay was really nice. Last night was our first time to ever stay at this place. All the other motels were booked due to government conventions, and the others that weren’t booked jacked their prices up astronomically, not ESA. They were extremely reasonable.More</t>
   </si>
   <si>
+    <t>Jon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r573074407-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>First time here. On business trip. Everything was top notch here. Only stayed one night but I see that people do stay extended time. Nice little kitchenette with frig and sink. Nice size room. Great water pressure in shower. Bedding a little stiff but ok. Great pillows tho. TV nice and easy to use. Lobby has nice area for breakfast and I guess dinner. Workout area big and they have a pool for kids. Small business area in lobby too. All the staff were very nice. Located in a great area too!!More</t>
   </si>
   <si>
+    <t>mrsdmajor1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r571903094-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Choose a different hotel.  The reviews do not do the description of this hotel Justice. You need to dig a little deeper and go to another hotel. The location is great but the hotel is not the best. I stay at a lot of hotels and this one is not good.More</t>
   </si>
   <si>
+    <t>sethyoung007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r568146561-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>We didn't have any issues with the people or the room. We would have liked more of a section with the breakfast offered besides granola bars or oatmeal. I believe there were muffins at one point, but nothing left when we got there.( Couldn't find anyone to ask to get some more)More</t>
   </si>
   <si>
+    <t>William Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r566353749-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>I enjoyed my stay here except for one issue.  The internet (wi-fi) at this site is terribly slow and causes me frustration even when simply trying to read my emails.  I had problems connecting a couple of my devices and then the front desk gave me a bad number to reach technical support.  I had to Google the company to find a good number.More</t>
   </si>
   <si>
+    <t>joe b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r565743266-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>I wouldn’t stay here again if I had to sleep outside, in the 3 month’s we stayed here they moved us 6 times,1 time because the kitchen sink was overflowing because the pipes in the walls were clogged. One time we moved because they tried to put us in a two bed room but the A/C didn’t work, another time we were bitten all over our bodies by bedbugs, the hotel told us to go to the urgent care and they would reimburse us, we didn’t have insurance because we just moved to Ft.Worth, we did go to urgent care and had to use our own money. It was bedbugs but the hotel told us to take our dogs and get flea dipped, they said it might be flea’s,no flea eggs or flea dirt or flea larvae was found, it cost me another $150, the hotel gave us $20 in quarters and said go wash our clothes,one room had cockroaches coming in and out more than we did, in the hotel manager said it was because of the rain, for a day and a half the hotel didn’t have any toilet paper, we had to go buy our own. The hotel manager told us to move to the hotel at another address , so we moved to a room with two beds and was very spacious, it was a wheelchair accessible room, I specifically asked if we were going to...I wouldn’t stay here again if I had to sleep outside, in the 3 month’s we stayed here they moved us 6 times,1 time because the kitchen sink was overflowing because the pipes in the walls were clogged. One time we moved because they tried to put us in a two bed room but the A/C didn’t work, another time we were bitten all over our bodies by bedbugs, the hotel told us to go to the urgent care and they would reimburse us, we didn’t have insurance because we just moved to Ft.Worth, we did go to urgent care and had to use our own money. It was bedbugs but the hotel told us to take our dogs and get flea dipped, they said it might be flea’s,no flea eggs or flea dirt or flea larvae was found, it cost me another $150, the hotel gave us $20 in quarters and said go wash our clothes,one room had cockroaches coming in and out more than we did, in the hotel manager said it was because of the rain, for a day and a half the hotel didn’t have any toilet paper, we had to go buy our own. The hotel manager told us to move to the hotel at another address , so we moved to a room with two beds and was very spacious, it was a wheelchair accessible room, I specifically asked if we were going to be moved another time and the hotel clerk said we would not have to move anymore, two days later we were told to move again.There were numerous lightbulb’s that I had to replace like the one’s in the stove vent was out in every room, there were many more issues than I mentioned, I called corporate office probably 7 times with absolutely no help, I guess you get what you pay for.I hope it helps people with this review.More</t>
   </si>
   <si>
+    <t>creamer12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r563253163-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Super service  manager went out of her way to help with a tv problem. Manager was very helpful and very kind she is also very patient and very nice to help out my situation thank you so much for you serviceMore</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r563644318-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>ESA Cityview has been my residence since April 2011. As such, I have much familiarity with the Hotel chain as represented by the management and employees of this hotel.  When I travel, I stay in an ESA hotel whenever available. My experience is that ESA employees are very responsive to the needs of their guests.  I believe that each ESA hotel is a home away from home.More</t>
   </si>
   <si>
+    <t>lydiar445</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r559452634-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>Everything went well with this visit. We will definitely be staying with you again. Only problem was reserving room online. For some reason it would not let me reserve room with out charging my card 1st. More</t>
   </si>
   <si>
+    <t>Chris B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r555860541-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>This is a extended stay property!!!  The people who stay there are actually residents, not guests.  People were cooking in their rooms and you were subject to the aroma where you liked it or not. The rooms are dated, carpet is horribleMore</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r552007160-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>Bed was not made the bottom  sheet was not put on just thrown under the covers. Thedoor handle to the bathroom fell off I told the staff it was never fixed. Turned on the light at night and there were roaches every where. It was terrible to say the least. I would not recommend this motel! More</t>
   </si>
   <si>
+    <t>domp401</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r550127602-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>Cheap is good, but good thing I did not stay long. People are ok but they need to trash the place and start over. The handyman they use must need glasses.  First time im there and live 1200 miles away..More</t>
   </si>
   <si>
+    <t>FWFCBen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r548088628-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>I stayed here for several days in late October and early November.  The staff was very nice and helpful fulfilling my needs.  You ask for the items you need to stock the kitchen and the staff brings them to your room.  I enjoy cooking a hot breakfast so the kitchen with a full size refrigerator was a nice addition.  They do serve muffins and coffee in the reception area and I helped myself to both, but they will also provide you with a coffee maker and coffee if you ask.The location is great, close to I-20, I-820, Hwy 183 and the Chisholm Trail Parkway,  There is a Costco close, a Sam's Club close, a Super Target next door and numerous restaurants.  I recommend Cousin's BBQ,If you want a clean room with a kitchen, close to freeways that will take you everywhere in the area with a reasonable price, I would recommend this Extended Stay.More</t>
   </si>
   <si>
+    <t>I395MCsarae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r545804904-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>It was good for what it was.   Nothing fancy.  The staff was great. Once I got to my room,  the front desk called to follow up and make sure everything looked good in the room. Great location, fair price, just an older hotel. A few updates is all it needs.More</t>
   </si>
   <si>
+    <t>942sylviaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r545188757-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -549,6 +594,9 @@
     <t>For the price, I am very pleased with this hotel. I would recommend to families or people traveling looking to save money.  The only complaint I have is the internet was not working when I got here and it took two days to resolve. When notifying front desk, they only give you a number to call. However, with that said I would stay at this hotel again because of the price and location. Also, the hotel was not dirty and felt clean and well maintained.More</t>
   </si>
   <si>
+    <t>Chris P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r544702214-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t>I just want to mention Cara for her outstanding service. I had an issue and she took care of it immediately. She always smiled and made me feel right at home she also has a great personality and made my stay a pleasure. The cityview location is lucky to have her.</t>
   </si>
   <si>
+    <t>Cody G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r544702163-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -582,6 +633,9 @@
     <t>I would like to tell everyone that the city view location is great. their service is amazing especially Cara she is kind and very helpful, because of her I would gladly stay here again in the future. The only thing I could think of that needs improvement is the ice cream in the laundry room. Brain freeze? More like freezer burn. But anyway thank you caraMore</t>
   </si>
   <si>
+    <t>P7055JOchristopherb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r539596377-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -606,6 +660,9 @@
     <t>Great location on the south side of Ft. Worth, but the place smelled horrible and common areas were dirty, which made me wonder how clean my room and bed really were. I thought I got a deal at $75/night but I wouldn't pay more than $40 if I went back, which I wouldn't. Nice staff. Bad smells. The same dirt and trash in the elevator when I arrived, was there 4 days later!!!  On the good side, it was quiet at night and had plenty of parking.More</t>
   </si>
   <si>
+    <t>spannishgirl69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r538291285-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>My mother in law needed to stay here since her home had some plumbing issues. We had problems with the dates, because the work was not done on the day we had scheduled to check out. I had called the front desk as soon as I learned her home would not be ready. The front desk told me I had the room for 5 more days. The next day Extended Stay America called saying checkout was at 11 and she needed to go. I explained to the managers that I had called the day before and reserved the room for 5 more days. After a little sparring they agreed to honor the front desk reservation I had made. I really appreciate the integrity of their decision and totally recommend them for any stay!More</t>
   </si>
   <si>
+    <t>REJ1957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r535269403-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -654,6 +714,9 @@
     <t>Found this chain by accident in TN and then again in Ft. Worth. Surprised by low price for hotel in medical area. Great if you need the entire kitchen setup as everything is provided. Staff was very good at both properties I've stayed at.More</t>
   </si>
   <si>
+    <t>Cynthia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r532360325-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -678,6 +741,9 @@
     <t>It is the best hotel to stay at. The staff there is amazing. Thank you to Sarah and Rachel for always help us out when we needed it.  You do have easy access to the freeways, a lot of different restaurants to go to, you have a trail to walk. Every beautiful area. More</t>
   </si>
   <si>
+    <t>scottgray1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r528170983-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>Hotel manager Jodi Gray is excellent at making sure employees give maximum effort to ensure guests are given quality service and an enjoyable stay. Hotel desk clerk Sierra goes above and beyond to make sure guests have everything they need and always has a positive attitude when providing assistance. More</t>
   </si>
   <si>
+    <t>Debbie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r526735551-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t>Will not be staying here again on our return trips. We have used Extended Stays before but this is by far the worst.First off, due to business and going from City to city we almost always get early check-ins. Here they said we could (1pm) for an extra $25. No thanks! We'll kill 2 hours somewhere.Also, additional charges for any house keeping needed. (See snapshot). Never saw that before.Bathroom was large but no counter space at all. That is an inconvenience. 1 little bar of soap you need to take from sink to shower. As far as heat/cooling system... Something is wrong when you have it set at 65 and even tho it runs occasionally it doesn't get anywhere near cool. And believe me, we normally set the thermostat at around 75, so 65 should have been freezing us out.Definitely an older facility, which is not in itself a bad thing, but not kept up very wellSpoke to a gentleman in the elevator, who volunteered that he would not stay here again. He was on a different floor and said his room and the whole floor smelled bad.Use this hotel only as a last resort and don't expect too much.More</t>
   </si>
   <si>
+    <t>B6986TNerinh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r505493611-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>This is a great hotel with the friendliest staff. What it lacks in amenities (no pool) compared to other hotels is made up for by having all the comforts of home available at a very reasonable price and the best staff ever!Guest satisfaction is truly their goal and that makes all the difference in a great stay.More</t>
   </si>
   <si>
+    <t>Ronald B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r505136583-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -780,6 +855,9 @@
     <t>Best deal in the area on my day of stay. Exceeded my expectations and very comfortable bed. I will definitely come back to this one dince its perfectly located to where i want to be . Only thing was the internet seems to forget to go through my room as i cant get the signal and the neighbors were a little loud and i hear some banging from the distance.More</t>
   </si>
   <si>
+    <t>CervezaTejas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r504757349-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -798,6 +876,9 @@
     <t>The room was ok at best. Air conditioning was cool but not cold enough versus 100 degree outside temp. There was no hair dryer in room or available at the front desk. There was a hair ball stuck to the bath room wall. Hair on the floor too. Not real clean. Over all was ok.More</t>
   </si>
   <si>
+    <t>Alicia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r504072999-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -822,6 +903,9 @@
     <t>Only stay here if you have nowhere else to go. Half my lamps were not working, there was a roach in the kitchen area, halls were smelly and noisy, no hot water in the shower... worst experience ever at a hotel.More</t>
   </si>
   <si>
+    <t>debbiemB1834PV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r503719187-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -840,6 +924,9 @@
     <t>Did not honor message from Booking.com. Housekeeping did not come by daily.  Had to call down for towels and to go get them. Found roaches in room on last day of our stay. Back door to facility was always openMore</t>
   </si>
   <si>
+    <t>butterfly0105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r501943838-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -867,6 +954,9 @@
     <t>I have been staying at this hotel for 8 months with my children. The management and staff were very friendly and excellent. They always attended to any needs or concerns we had. Since the new manager (Jody Gray) has taken over, the hotel has been turned upside down. I have never met a more unprofessional, racist, and harassing manager in my life. Certain guests here get special treatment while others do not. I got a notice for my account being negative even though I was not informed. I have had the police called on me twice and she also tried to have my dog removed and got upset with the staff because they did not lie to Animal Control for her. I have made several complaints but when the DM called me she did not want to speak with me about my concerns, she only wanted to speak about money. I ended the conversation immediately. I have spoken with human resources and am waiting for a response from them. I have already spoken with an attorney and a couple of news channels regarding the behavior that is going on at this establishment. The other employees here are great but they can only do what they are told to do by their Manager....More</t>
   </si>
   <si>
+    <t>163leticiaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r495942116-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -891,6 +981,9 @@
     <t>When I arrived at the hotel and walked in to check in the guy was with another customer for about 10 min I was not pleased cause I had to wait. Then the guy was taking his time to still check me in...More</t>
   </si>
   <si>
+    <t>KngovKngs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r495419863-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1008,9 @@
     <t>Management and staff care about your needs and will accommodate you no matter what. The rooms are very clean. We love the location and that's why we would recommend this hotel to everyone! We have made another reservation for a ten day stay! More</t>
   </si>
   <si>
+    <t>sherrieb979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r495393309-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1026,9 @@
     <t>The hotel is located in a very busy retail and residential area! It is surrounded by restaurants, shopping, auto dealers, salons, and drugstores! You can walk less than 5 min to everything imaginable!More</t>
   </si>
   <si>
+    <t>Randommomandwife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r493617577-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1056,9 @@
     <t>Stayed here with a teen group,  Came home with bed bugs.A/C broken and barely cooled.  Nothing was stocked in rooms had to ask for everything.  Breakfast was less than stellar.  First room they gave us wasn't even cleaned from last guest. More</t>
   </si>
   <si>
+    <t>charlesdG1793BJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r493245614-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1083,9 @@
     <t>Great stay.  Had kitchen with microwave refrigerator and freezer… Had the  gym to workout in…  location was perfect… Could get to and from very easily… Had no problems with staff or the maids…  The room was clean and again no problems… More</t>
   </si>
   <si>
+    <t>LuvMuscle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r487696489-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1110,9 @@
     <t>It was just a bit dirty for my expectations. My non smoking room had the smell of smoke and the smoke detector was covered. I'm sure it was from the previous guest but the hotel should have done more to rectify that. The staff was very friendly!More</t>
   </si>
   <si>
+    <t>Anna M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r483987814-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1137,9 @@
     <t>Good staff good foods good service Room is comfortable and facilities are good. There is a bar fridge now. Staff are very friendlyHad to move rooms due to problems with air conditioning and then air conditioning didn't work in second room. This was fixed the following day.. While staff are very friendly and helpful, they are often not prompt in addressing issues. The hotel wants full payment upfront. I would advise against complying with this demand.More</t>
   </si>
   <si>
+    <t>whocares85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r483559835-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1164,9 @@
     <t>I had a really great experience. My  favorite thing about my visit was the great service I received from Tony the front clerk. He was very patient and very polite. He made sure we had everything we needed and always  checked on us when we left and returned. Tony also gave great recommendations for places to eat and visit. He is an outstanding employee who gos out of his way for his guest.More</t>
   </si>
   <si>
+    <t>Jamie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r481934470-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1194,9 @@
     <t>This hotel is not a bad place to stay until you find apartments or house of new in area! However the management from what I can see is/was problem . They consistently run out of breakfast/ toilet paper and trash bags. Tiffany and Steve are best workers and help in every way. Actually go above and beyond to help. Tony is very accommodating and helpful. Now that Desiree is gone the place will turn around. Desiree confronted me in A very unprofessional way in front of employees on a review I sent few mths ago. I was asked not to send those and email her. The new manager seems to be on top of things and brings a positive vibe to front ! Overall it's comfortable!More</t>
   </si>
   <si>
+    <t>Carmen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r481575267-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1224,9 @@
     <t>The room looked great on the web. When my daughter and I arrives, we were very disappointed. The room was large but it felt humid, smelled like mildew and was dark. I had to keep the A/C on to get rid of the smell. We were out all day running errands, and when we got back the room was not made or cleaned. When we asked, we were told that we wouldn't get cleaning service because we were staying for less than a week. That meant that we would not get clean towels or linens and the bed would be unmade. Staff did come in, though, to turn the A/C off, so when we got back the smell of mildew permeated the whole room. I will never stay in such a place again.More</t>
   </si>
   <si>
+    <t>Ridge S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r480160875-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1254,9 @@
     <t>You get what you pay for. Steve is hardest working employee I've seen. Overall staff is friendly and helpful. Tv been out over a week so that's been a challenge being stuck in room. Hotel property stays full of trash due to short staffed I think. Overall it's affordable. More</t>
   </si>
   <si>
+    <t>Allison M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r479593764-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1281,9 @@
     <t>Have been here for a few weeks while house hunting. In general, not bad. Cheap and you're getting what you pay for... My biggest complaint is the satellite TV and internet connection are HORRIBLE!! I upgraded my internet this week in hopes of being able to do any work in the evenings, but it seems to be worse. And only national channels available over-the-air are working this week. More</t>
   </si>
   <si>
+    <t>Amenze A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r479314242-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1182,6 +1308,9 @@
     <t>I've been staying in Fort Worth for work and I wanted to stay somewhere quiet and safe. And this place has been exactly that. All the staff has been very kind and attentive especially Tony. I definitely would stay here again in the future. More</t>
   </si>
   <si>
+    <t>Haila S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r479004444-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1338,9 @@
     <t>I am staying on a long term basis and appreciate that my room is out of the people traffic flow and noise. I can enjoy a night's sleep without hearing the people on either side of me. The amenities are very good and the housekeeping staff are very thorough when cleaning my room. Most of all the staff is amazing. They make it clear that they appreciate I am staying with this hotel and when I come back into the hotel at the end of the day, they welcome me back. At the end of a day that is wonderful to hear. I am unable to name all staff but the names that I can remember are Tony and Steve. Staff is always willing to try to accommodate me.More</t>
   </si>
   <si>
+    <t>bigicon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r478378214-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1233,6 +1365,9 @@
     <t>Made reservations  on Thursday  march 20 th Friday   21 we drove to hotel n realized  hotel cancelled  my reservation  very disappointed  in this never ask if  they could help find me another hotel  this  was city view hotel fort worth terry oliver bigicon69@hotmail.comMore</t>
   </si>
   <si>
+    <t>Duane B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r475108945-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1395,9 @@
     <t>Stayed here while attending World Paint Horse Show at Will Rodgers memorial center. Accommodation was clean and comfortable and staff were very friendly and helpful. Excellent location with shopping, restaurants and bars all within walking distance. Rooms have full kitchens so if you want to cook you can. Will be staying here next time in Fort Worth. Have friends that stay here every year for the last 14 years.More</t>
   </si>
   <si>
+    <t>Tinkonthego0628</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r466396333-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1413,9 @@
     <t>Just got here this afternoon. Guy at front desk acts like it's an inconvenience that you are here. Sorry, but I think that's your job dude! You have to ask for things for your kitchen from the front desk, another inconvenience for Mr. Personality! Dog crap on all of the grassy areas around the building so watch your step. Gonna be here a week, so I may be up dating this. Stayed tuned.</t>
   </si>
   <si>
+    <t>madhu53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r465669250-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1440,9 @@
     <t>I stayed at this Hotel recently. I had no problems - the stay was pleasant &amp; comfortable. It is a great location, right next to the Trinity River &amp; all the amenities.Sara at the Front Desk was particularly helpful. She was always courteous and attended to all my requests.P. MadhuMore</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r462911008-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +1461,9 @@
     <t>BAD News:  We rented a extended stay so that we could have a kitchenette but NOTHING was provided. No cups of any kind( not even the little plastic ones, usually found in the bathroom) We noticed a sign that mentioned that we would have to ask for a set of dishes to be brought up. I think it was an extra charge for the dishware, but we didn't bother with it.  Not a good breakfast either. Coffee was good.Good news: The price for the location is wonderful. The hotel was clean and quiet. We came to visit a family member in the hospital. We needed to leave a day early and they were very nice about it and credited it back to my card. Overall stay was pleasant.More</t>
   </si>
   <si>
+    <t>David C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r460500615-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +1488,9 @@
     <t>OK I'm a picky person when it comes to hotels I've been around the country a few times and stayed in a lot of hotels some good some bad  this extended stay is very quiet the staff is friendly and  the rooms were clean the only thing bad about this place was a couple washers and dryers out of order but the upside is you are close to all the restaurants and stores literally walking distance  and the neighborhood is pretty nice :)More</t>
   </si>
   <si>
+    <t>Elizabeth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r460374837-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1506,9 @@
     <t>Tony was a great host and worked to please our needs.  The television viewing was poor to non-existent. The room reservation system needs work, we were assigned the wrong room number when we first arrived and then someone else was assigned our room during the stay. Tony quickly fixed the issues and made us feel like valued guest.More</t>
   </si>
   <si>
+    <t>dejones39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r460216495-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1527,9 @@
     <t>We have been staying at the hotel while waiting for our apartment to be ready. All of the staff are very friendly and quick to answer any questions and follow up about any concerns. Tony is the staff member that I see the most and he is very helpful and so polite. He speaks as soon as he sees us and always asks how we are doing.More</t>
   </si>
   <si>
+    <t>Amandasmithers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r459708456-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1572,9 @@
     <t>This is hotel was has excellent customer service, rooms were clean. Front desk staff was very helpful and accommodating, they were happy to answer any questions I had about places around the area. I will definitely stay here again when I come to Ft. Worth.More</t>
   </si>
   <si>
+    <t>Buffbred</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r443382490-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1593,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>717parom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r437528325-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1458,6 +1620,9 @@
     <t>Front desk did not give much info about room, wifi, - anything.  The entrance in the hotel smelled bad and did not look appealing.  Taking the elevator to room made me feel terrible, smell, the look of dirty - but I kept a positive mind.  Getting off the elevator made my experience bad - Trash in hallway along with shoes.  Then we get to the room.  As soon as we opened the door it smelled horrible.  My little one said it smelled like garlic.  We opened windows and went out to eat.  Came back to the same smell, I just wanted to sleep and get the hell out the next day.  Pictures make it look like a good place, but after one night I was out. Won't be visiting or recommending this to anyone.More</t>
   </si>
   <si>
+    <t>Polasamoa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r433973165-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1650,9 @@
     <t>My wife and I run a hotel but the chain is not in the Dallas area, so I went to Priceline for the best deal. Priceline booked me Extended Stay and here we go. When I first  got to my Hotel to checked in the front desk was sitting down and playing on his phone. He seem put out that I was there and really lazy. He did not tell me where my room was or anything about the hotel. The hotel was old and dirty. I understand this because of budget and long term guest who is there for work can put damage to a hotel.  My hotel room was simple and nice no real issues. I can tell the housekeeping was below average. They did not check towels and put dirty stain towels back on the rack. Hair was left everywhere in the bathroom.  One front desk was wearing jeans and t-shirt with no hotel  ID. I thought he was guest using laundry. Breakfast was very small with minimum items require my corp. good coffee. First time, I stayed in hotel without a Ice Machine. Overall very little effort is put in the hotel Please never allow staff wear jeans, be on the phone for personal use and allow then sit down.It looks bad to guest. If someone is looking a simple hotel next to a lot of stores than this would be a hotel to get.More</t>
   </si>
   <si>
+    <t>mrwhistle2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r429039366-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1668,9 @@
     <t>checked in for a week long stay.....no dishes available, no face cloths on several occasions. What next ?......no toilet paper? Staff act like they hate their jobs....haven't seen a single smile since I got here. No dress code apparently. Plan to ask for a manager today!!</t>
   </si>
   <si>
+    <t>Rebecca H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r418457202-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1698,9 @@
     <t>Super dirty.  Gross greasy fingerprints everywhere so you can actually see it wasn't cleaned well at all.  Floors were filthy.  You can see begin the counter where there's old food wrappers and unkept work space.   It's just really icky.  I didn't even stay.  Wasted money.More</t>
   </si>
   <si>
+    <t>Shanya2101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r414774014-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1554,6 +1728,9 @@
     <t>I love coming to City View Extended Stay America...It's always clean and the staff is great. I love the kitchen area, being able to cook a hot meal after a business meeting is great! The water also gets really hot, perfect for melting away the stress of a long day. My hotel of choice whenever I need to book a stay locally.More</t>
   </si>
   <si>
+    <t>A'shanta J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r410823907-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1755,9 @@
     <t>I've stayed here 3 different times now; from a one week stay to a 2 month stay and each time has been great overall. The room has everything I need in a comfortable setting, great neighborhood and friendly staff.  I do wish this room had a leather recliner like my last two stays but the leather stationary chair is okay. There's adequate parking, breakfast snacks, a laundry room on site and they keep the hotel pretty clean.  This is my hotel of choice when I need a short or long term stay. More</t>
   </si>
   <si>
+    <t>mphil2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r398413903-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1776,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Ashley T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r395803559-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1794,9 @@
     <t>Cynthia makes the entire process of staying in a hotel a breeze. She goes above and beyond and doesn't seem to mind if I bother her 50 times a day. :P By far the best customer service I've experienced.</t>
   </si>
   <si>
+    <t>Stephanie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r395657092-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1635,6 +1821,9 @@
     <t>We stayed here a few weeks ago and Cynthia was such a breath of fresh air. She had the best customer service I have ever experienced! The room was great, but I can not say enough about Cynthia and her attention to detail!!! I would stay at the Bates motel as long and I was being served by Cynthia!More</t>
   </si>
   <si>
+    <t>616Mel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r395266544-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1662,6 +1851,9 @@
     <t>Cynthia checked us in and she has been extremely helpful and nice. She has gone above and beyond to help with all requests we have had. We has helped us find things close to the hotel and has offered helpful suggestions when questions were asked.More</t>
   </si>
   <si>
+    <t>allisonmedford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r393723944-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1677,6 +1869,9 @@
     <t>The room I booked was not available when I checked in so I had to have 2 separate rooms for my family of 4 and was not comped for my inconvenience.  The beds are also very uncomfortable and the breakfast is a joke!</t>
   </si>
   <si>
+    <t>Leonid L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r391898100-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1896,9 @@
     <t>I was checked in by Cynthia. She was extremely helpful and very nice while checking me in. Everyone working at front desk throughout the day and night were always willing to help! Had to switch rooms due to my phone signal on one side of the building and Cynthia was again helpful and accommodating.More</t>
   </si>
   <si>
+    <t>Bob A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r385069928-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1926,9 @@
     <t>Nice clean extended stay hotel.  It felt like home. The staff is very friendly and willing to help you out.  I was there for three months and had not issues at all.  Very close to everything I needed.  You won't be disappointed.More</t>
   </si>
   <si>
+    <t>Thomas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r383361029-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +1950,9 @@
     <t>Thought I booked a "Hotel room"!With common expectations. Be advised: make you own iceNo daily room service"Breakfast" is a JOKE Virtually no front desk service...hardly ever there; walk away into laundry room when you approach; surprised I was still there after 10 minutes... My guess, using or drinking. Listed as non smoking; obviously just recent as the place reeks of past smoke. Research of "fine print" does say what their Version of room service is. Who checks the fine print about room service in a HOTEL?Will never stay here again!!!!!More</t>
   </si>
   <si>
+    <t>NICNACTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r379941699-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +1971,9 @@
     <t>If this review was just based on how nice the room is then I would give 5 stars! The room is an amazing value for the price. Very clean, has a little kitchen with a refrigerator, cabinet, sink, microwave and stove. The only complaints are that at 8:30 this morning someone was vacuuming out in the hallway, I was all ready awake so it didn't bother me but that doesn't seem like something most guests would appreciate if they are trying to sleep in. Another thing is that they advertise complimentary breakfast and when we went down for breakfast and realized they had no breakfast area we asked the front seat lady and she pointed to a little cart right in front of the front desk that had some different granola bars, coffee and packets of oatmeal which was not what we expected from what was advertised when we booked the room. The AC's could use some improvements unless it was just ours, we were very hot during the night and we had it down to 60, the beds are not the most comfortable but they aren't too bad.  Other than that they stay was great especially for the price! The More</t>
   </si>
   <si>
+    <t>Julie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r374380783-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1785,6 +1992,9 @@
     <t>We stayed a month here. They have a complete kitchen with everything you need. Coffee pot, toaster, pans, dishes, silverware. Full size refrigerator and stove.  Cabinets and dining table.  Even a dish washer! Very large room with desk. Sleeper sofa sitting area. They also have a large laundry room with plenty of new washers and dryers! Huge work out room. Even an ice cream vending machine! Very nice and safe area. Very convenient to Everything!  A lake out the back door. Literally out the back door!I felt like the staff were family by the time we had to go to another town. Desiree, Porsche, Ashley, Bobby, Jeff and James were all just Great! I absolutely loved my stay there! More</t>
   </si>
   <si>
+    <t>Marissa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r373774285-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1800,6 +2010,9 @@
     <t>They are so nice here and its extremely clean. Free breakfast and coffee in the morning. I would recommend this hotel to anyone. Plus its non smoking, and there are tons of resturaunts right outside the front door. My only complaint is that there isnt a pool. Other than that, this is the perfect place to stay. Also it's super quiet.  If you want a comfortable stay with a nice staff and a friendly atmosphere as well as tons of places to eat, then stay here.</t>
   </si>
   <si>
+    <t>Mitul A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r368854151-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2040,9 @@
     <t>Walked into lobby and they lost our reservation. We had requested a rollaway bed but did not receive one..After we confirmed we would receive one. Then our room was missing all appliances/pots/silverware from kitchen. To top it off our bathroom door was broken. The a/c was not working. And the lamp was missing the lightbulb. I would not stay here with childrenMore</t>
   </si>
   <si>
+    <t>Georgianna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r365157519-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2067,9 @@
     <t>Worst stay ever, requested rollaway at check in finally got it 3 days later. Rollaway was so terrible still having back issues. No Hangers at all, ask front desk said searched whole hotel none anywhere. Was to be a grab and go breakfast until 10am by 9:15am coffee was put up muffins were dry and old really disappointed especially what we were going through with our mom  More</t>
   </si>
   <si>
+    <t>Nawal T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r361526628-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1875,6 +2094,9 @@
     <t>Spacious neat rooms.  Very convenient and excellent value.  Helpful friendly staff. Just don't rely on the breakfast, just muffins and fruits + a very good coffee.   Will definitely recommend it and come back again More</t>
   </si>
   <si>
+    <t>Dave R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r349257946-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1902,6 +2124,9 @@
     <t>The staff is not only courteous, but friendly and always willing to help. Every one of them is like a concierge from a five Dimond European hotel. Housekeeping comes as often as you need them and will accommodate your schedule. I love the kitchenette and it's more than big enough for meMore</t>
   </si>
   <si>
+    <t>iPhiLgreat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r341096644-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1929,6 +2154,9 @@
     <t>This is a clean professional hotel. Plenty of shopping nearby and the staff was professional. Could do with a few more outlets in the room for phone charging, but it was only for a night so it was manageable. Nothing special, yet no complaints.More</t>
   </si>
   <si>
+    <t>Calvin Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r334494838-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1947,6 +2175,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>944jayj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r300944239-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1974,6 +2205,9 @@
     <t>Neat, quite and clean - staff makes you feel like family - all of them are super nice ! Grab and go breakfast is perfect for me but there are lots of restaurants very close. Plenty of parking space. Target, Walmart, Best Buy, Lowes, Cosco, Walgrens, all within minutes.More</t>
   </si>
   <si>
+    <t>Portia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r292613520-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2001,6 +2235,9 @@
     <t>I stayed here overnight on July 24, 2015.  The lobby is very nice, and the front desk worker who checked me in, Samantha, was very friendly.  She kept getting interrupted with people asking for things while trying to check me in, but she managed to hold a conversation with me and tend to the requests of the other guests with no problem.  The hotel itself is in the middle of a shopping district, so finding a place to eat and shop were literally right across the street.  The room was a nice size and clean.  The bed was comfortable and the hotel was quiet.  My only two problems with the room were that it smelled like fried food, which I adjusted to once I was in there for awhile, and that the bathroom light was loud and irritating when I first flipped it on, but I'm sensitive to sounds like that.  Overall, the hotel is very nice and well-priced. I recommend staying here.More</t>
   </si>
   <si>
+    <t>Janice W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r291215969-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2025,6 +2262,9 @@
     <t>I've been looking at reviews of this hotel, and I almost think they were plants - I've lived here since April, 2015, and off and on for 2 years before that, and I've never seen the negative things in those reviews. I've never stayed anywhere else where the staff were so wonderful, friendly, and helpful. The entire hotel has been remodeled within the past year, outside and in. This is one of the most comfortable beds I've ever slept in. The AC is perfect. I love it here and plan to live here for years.More</t>
   </si>
   <si>
+    <t>Strathmorefarm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r286242861-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2049,6 +2289,9 @@
     <t>We stayed here for 6 nights, the staff were very friendly and helpful, rooms were of reasonable size, clean and tidy. A/C worked perfectly, which was a relief as it was so hot! Good location, just across the road from shopping area and food places. One down side was that house keeping only come every four days, so we had to go get clean towels, but overall I was very happy and would stay there again!More</t>
   </si>
   <si>
+    <t>Linda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r284542967-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2074,6 +2317,9 @@
   </si>
   <si>
     <t>The location is great.  Close to the bowling alley which had youth state tournament.  Cousins Bar-B-Que located next to it.  Had a good time except the beds were very firm.  First time to stay at this type of hotel, but it serves your needs.More</t>
+  </si>
+  <si>
+    <t>gphirps</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r274701162-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
@@ -2119,6 +2365,9 @@
 It is supposedly a non-smoking hotel, that reeks of cigarette smoke all day and marijuana late at night.
 The staff was terrible and non-attentive (except for one employee who was actually trying)
 The vibe around the whole area is sketchy... (did I mention that my car and...Except for one gentleman, the staff was terrible.  They do not care about their guests.  They would rather assist their friends that are loitering in the lobby than actual paying customers.  Why a poor review?I reserved a room over the phone, which took 20 mins.  When I got to the hotel, they didn't have my reservation and had to spend another 20 mins giving the same info I gave on the phone.  Unfortunately, they locked me into a 7 day stay that I couldn't get out of once I realized the mistake I had made.... staying at this terrible hotel.The lobby, floors and hallways were dirty.There are bugs in the bed linens - I got a rash on my skin.  My dog had to go to the vet after staying here two weeks and her fur started falling out.My car was broken into.My credit card was charged without my authorization and the lady that charged me had another employee call to let me know they had charged my card - A DAY LATER and without further explanation.  I am currently disputing this charge with my credit card company.It is supposedly a non-smoking hotel, that reeks of cigarette smoke all day and marijuana late at night.The staff was terrible and non-attentive (except for one employee who was actually trying)The vibe around the whole area is sketchy... (did I mention that my car and another were broken into??) The "breakfast" is a granola bar and a dixie cup of crappy coffee.Do not stay here.  The rates are high, the place is dirty and unsafe and the staff could care less about your needs/comfort.  I won't ever stay at another Extended Stay America again.More</t>
+  </si>
+  <si>
+    <t>David76054</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r265234079-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
@@ -2641,43 +2890,47 @@
       <c r="A2" t="n">
         <v>38328</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>66956</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2689,56 +2942,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38328</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>15757</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2750,56 +3007,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38328</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -2821,56 +3082,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38328</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2892,56 +3157,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38328</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>40193</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2963,56 +3232,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38328</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3024,56 +3297,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38328</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3085,56 +3362,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38328</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
         <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>107</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3156,56 +3437,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38328</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3227,56 +3512,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38328</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>6529</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3292,56 +3581,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38328</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3363,56 +3656,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38328</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3434,56 +3731,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38328</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>79001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3499,56 +3800,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38328</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3560,56 +3865,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38328</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3631,56 +3940,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38328</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3694,41 +4007,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38328</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -3745,56 +4062,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38328</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3816,56 +4137,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38328</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3883,56 +4208,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38328</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3954,56 +4283,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38328</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>11440</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4015,56 +4348,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38328</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136198</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4076,56 +4413,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38328</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>22655</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4137,56 +4478,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38328</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136199</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4208,56 +4553,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38328</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>12033</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4279,56 +4628,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="X26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38328</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>279</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4350,56 +4703,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="X27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="Y27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38328</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>23223</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4421,56 +4778,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="X28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38328</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4492,56 +4853,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="X29" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38328</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4553,56 +4918,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="X30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38328</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4624,56 +4993,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="Y31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38328</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136204</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4695,56 +5068,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="X32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="Y32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38328</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136205</v>
+      </c>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O33" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4766,56 +5143,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="X33" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38328</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4837,56 +5218,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="X34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38328</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4908,56 +5293,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="X35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38328</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4973,56 +5362,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="X36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="Y36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38328</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>3136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>364</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="K37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="L37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="O37" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5034,56 +5427,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="X37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38328</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136209</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5095,56 +5492,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="X38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38328</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>57734</v>
+      </c>
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="L39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5156,56 +5557,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="X39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="Y39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38328</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>83865</v>
+      </c>
+      <c r="C40" t="s">
+        <v>392</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5223,56 +5628,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38328</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>402</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5284,56 +5693,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="X41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Y41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38328</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>69307</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5345,56 +5758,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="X42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="Y42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38328</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136211</v>
+      </c>
+      <c r="C43" t="s">
+        <v>421</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="L43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5406,56 +5823,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="X43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38328</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136212</v>
+      </c>
+      <c r="C44" t="s">
+        <v>430</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="J44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="L44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O44" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5471,56 +5892,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="X44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="Y44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38328</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>440</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="J45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5532,56 +5957,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38328</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5593,56 +6022,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="X46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38328</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="K47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="L47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5662,50 +6095,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38328</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>465</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="K48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="L48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5721,56 +6158,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="X48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="Y48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38328</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C49" t="s">
+        <v>474</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="J49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="K49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="L49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5788,50 +6229,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38328</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>520</v>
+      </c>
+      <c r="C50" t="s">
+        <v>481</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="J50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5843,56 +6288,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="X50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38328</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>4214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>490</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="J51" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5904,56 +6353,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="X51" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38328</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136217</v>
+      </c>
+      <c r="C52" t="s">
+        <v>496</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="J52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5969,56 +6422,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="X52" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Y52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38328</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>503</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="J53" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="K53" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="L53" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6030,56 +6487,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="X53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="Y53" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38328</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>136197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="J54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="K54" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="L54" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="O54" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6091,56 +6552,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="X54" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Y54" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38328</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136219</v>
+      </c>
+      <c r="C55" t="s">
+        <v>518</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="J55" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="K55" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="L55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="O55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6158,50 +6623,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38328</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>525</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="J56" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="K56" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -6219,56 +6688,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="X56" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="Y56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38328</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136221</v>
+      </c>
+      <c r="C57" t="s">
+        <v>534</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="J57" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="K57" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6286,56 +6759,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="X57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="Y57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38328</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>136222</v>
+      </c>
+      <c r="C58" t="s">
+        <v>544</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="J58" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="K58" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="L58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6353,50 +6830,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>38328</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>10808</v>
+      </c>
+      <c r="C59" t="s">
+        <v>550</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="J59" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="K59" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="L59" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="O59" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6408,56 +6889,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="X59" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="Y59" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>38328</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>136223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>560</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="J60" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="K60" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="L60" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6473,56 +6958,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="X60" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="Y60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>38328</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136224</v>
+      </c>
+      <c r="C61" t="s">
+        <v>570</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="J61" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="K61" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="L61" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6534,56 +7023,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="X61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="Y61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>38328</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136225</v>
+      </c>
+      <c r="C62" t="s">
+        <v>579</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="J62" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
       <c r="K62" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="L62" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6603,50 +7096,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>38328</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>4737</v>
+      </c>
+      <c r="C63" t="s">
+        <v>586</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="J63" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="K63" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="L63" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="O63" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6664,50 +7161,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>38328</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C64" t="s">
+        <v>592</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="J64" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="K64" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="L64" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6719,56 +7220,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="X64" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="Y64" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>38328</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136226</v>
+      </c>
+      <c r="C65" t="s">
+        <v>601</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="J65" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="K65" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="L65" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6784,56 +7289,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="X65" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="Y65" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>38328</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>136227</v>
+      </c>
+      <c r="C66" t="s">
+        <v>611</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="J66" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="K66" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="L66" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -6853,50 +7362,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>38328</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>79003</v>
+      </c>
+      <c r="C67" t="s">
+        <v>617</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="J67" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="K67" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="L67" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="O67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6908,56 +7421,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="X67" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="Y67" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>38328</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>27883</v>
+      </c>
+      <c r="C68" t="s">
+        <v>626</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="J68" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="K68" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="L68" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6975,47 +7492,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="X68" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="Y68" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>38328</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>5371</v>
+      </c>
+      <c r="C69" t="s">
+        <v>636</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="J69" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="K69" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -7032,56 +7553,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="X69" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="Y69" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>38328</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>136228</v>
+      </c>
+      <c r="C70" t="s">
+        <v>644</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="J70" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="K70" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="L70" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7095,50 +7620,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>38328</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>12637</v>
+      </c>
+      <c r="C71" t="s">
+        <v>651</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="J71" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="K71" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="L71" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="O71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7152,50 +7681,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>38328</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>27323</v>
+      </c>
+      <c r="C72" t="s">
+        <v>658</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="J72" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="K72" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="L72" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7209,50 +7742,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>38328</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136229</v>
+      </c>
+      <c r="C73" t="s">
+        <v>664</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="J73" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="K73" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="L73" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7264,56 +7801,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="X73" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="Y73" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>38328</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136230</v>
+      </c>
+      <c r="C74" t="s">
+        <v>674</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="J74" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="K74" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="L74" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="O74" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7325,56 +7866,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="X74" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="Y74" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>38328</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>683</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="J75" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="K75" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="L75" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="O75" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7386,56 +7931,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="X75" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="Y75" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>38328</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>7041</v>
+      </c>
+      <c r="C76" t="s">
+        <v>692</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="J76" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="K76" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="L76" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="O76" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7447,56 +7996,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="X76" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="Y76" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>38328</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>702</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="J77" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="K77" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="L77" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="O77" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7514,56 +8067,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="X77" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="Y77" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>38328</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>136233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>712</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="J78" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="K78" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="L78" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="O78" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7581,50 +8138,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>38328</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>136234</v>
+      </c>
+      <c r="C79" t="s">
+        <v>719</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="J79" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="K79" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="L79" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="O79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7642,56 +8203,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="X79" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="Y79" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>38328</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>136235</v>
+      </c>
+      <c r="C80" t="s">
+        <v>729</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="J80" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="K80" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="L80" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="O80" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7709,56 +8274,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="X80" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="Y80" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>38328</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>83790</v>
+      </c>
+      <c r="C81" t="s">
+        <v>739</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="J81" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="K81" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="L81" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="O81" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7774,56 +8343,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="X81" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="Y81" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>38328</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136236</v>
+      </c>
+      <c r="C82" t="s">
+        <v>748</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="J82" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="K82" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="L82" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="O82" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -7835,56 +8408,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="X82" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="Y82" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>38328</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>6841</v>
+      </c>
+      <c r="C83" t="s">
+        <v>757</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="J83" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="K83" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="L83" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="n">
@@ -7902,56 +8479,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="X83" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="Y83" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>38328</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>136237</v>
+      </c>
+      <c r="C84" t="s">
+        <v>767</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="J84" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
       <c r="K84" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="L84" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="O84" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="n">
@@ -7967,56 +8548,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="X84" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="Y84" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>38328</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>136238</v>
+      </c>
+      <c r="C85" t="s">
+        <v>777</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="J85" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="K85" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="L85" t="s">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="O85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8034,7 +8619,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_229.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_229.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,156 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Becca B</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r602883412-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109175</t>
+  </si>
+  <si>
+    <t>602883412</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>thanks tamim</t>
+  </si>
+  <si>
+    <t>i stayed at this hotel at fortworth, it was really great, tamim is the manager he provided excellent support from checking in all the way till my 2month trip. he is ver hard working, he deserves the credit, he always go the extra mile to help people and he knows the process very well. i will definiely stay here again. thsnks TamimMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>i stayed at this hotel at fortworth, it was really great, tamim is the manager he provided excellent support from checking in all the way till my 2month trip. he is ver hard working, he deserves the credit, he always go the extra mile to help people and he knows the process very well. i will definiely stay here again. thsnks TamimMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r573074407-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>573074407</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>EXCELLENT!!!!</t>
+  </si>
+  <si>
+    <t>First time here. On business trip. Everything was top notch here. Only stayed one night but I see that people do stay extended time. Nice little kitchenette with frig and sink. Nice size room. Great water pressure in shower. Bedding a little stiff but ok. Great pillows tho. TV nice and easy to use. Lobby has nice area for breakfast and I guess dinner. Workout area big and they have a pool for kids. Small business area in lobby too. All the staff were very nice. Located in a great area too!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>First time here. On business trip. Everything was top notch here. Only stayed one night but I see that people do stay extended time. Nice little kitchenette with frig and sink. Nice size room. Great water pressure in shower. Bedding a little stiff but ok. Great pillows tho. TV nice and easy to use. Lobby has nice area for breakfast and I guess dinner. Workout area big and they have a pool for kids. Small business area in lobby too. All the staff were very nice. Located in a great area too!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r601488070-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>601488070</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Great amenities and pool, free coffee</t>
+  </si>
+  <si>
+    <t>they have a pool, and free coffee, who could ask for more? :D , rooms are clean and smell nice, there's a nice TV with decent signal and the beds are pretty big. I would come here again if i ever come back in town. Thank u for the stay! (Source; I'm in the military and this place is really good for traveling)MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>they have a pool, and free coffee, who could ask for more? :D , rooms are clean and smell nice, there's a nice TV with decent signal and the beds are pretty big. I would come here again if i ever come back in town. Thank u for the stay! (Source; I'm in the military and this place is really good for traveling)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r595110655-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>595110655</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>No Rest</t>
+  </si>
+  <si>
+    <t>I stayed a week at this hotel and didn't get much rest at all. I could hear everything on each side of me and upstairs. Baby crying/screaming, a lot of children upstairs walking heavy, pounding on the floor at all hours. The hotel is dated and could use some renovations. Walking into the room it had a strange odor. The room is NOT fully equipped with all your kitchen needs, you have to ask for each item so don't go by what you read in the hotel description. For example, I asked for a coffee pot which I got, but I had my own filters and coffee. I was in my room when housekeeping came in to clean my room. She cleaned the bathroom with a cleaning cloth and a spray bottle then came out to clean the kitchen with the same cloth and spray bottle. They overdo with the Febreeze spray too. I tried getting some sleep in the morning but housekeeping was slamming doors in the rooms she was cleaning. So much for getting any sleep.  If you want breakfast you probably should make it yourself or go out. They just have breakfast bars, just simple items like grab and go stuff. The price was good and the front desk staff were nice but that's about it. I'm glad I won't need to come backMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>I stayed a week at this hotel and didn't get much rest at all. I could hear everything on each side of me and upstairs. Baby crying/screaming, a lot of children upstairs walking heavy, pounding on the floor at all hours. The hotel is dated and could use some renovations. Walking into the room it had a strange odor. The room is NOT fully equipped with all your kitchen needs, you have to ask for each item so don't go by what you read in the hotel description. For example, I asked for a coffee pot which I got, but I had my own filters and coffee. I was in my room when housekeeping came in to clean my room. She cleaned the bathroom with a cleaning cloth and a spray bottle then came out to clean the kitchen with the same cloth and spray bottle. They overdo with the Febreeze spray too. I tried getting some sleep in the morning but housekeeping was slamming doors in the rooms she was cleaning. So much for getting any sleep.  If you want breakfast you probably should make it yourself or go out. They just have breakfast bars, just simple items like grab and go stuff. The price was good and the front desk staff were nice but that's about it. I'm glad I won't need to come backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r585178549-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>585178549</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Family was visiting for one week, great stay for the price!</t>
+  </si>
+  <si>
+    <t>My experience was very good. The best thing was the location, being surrounded by shops, the mall, restaurants and venues for the kids.  The room  and hotel was clean and odor free. I will be taking advantage of this location in the future. The staff was very helpful and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>My experience was very good. The best thing was the location, being surrounded by shops, the mall, restaurants and venues for the kids.  The room  and hotel was clean and odor free. I will be taking advantage of this location in the future. The staff was very helpful and accommodating.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r579117931-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>109175</t>
-  </si>
-  <si>
     <t>579117931</t>
   </si>
   <si>
@@ -174,57 +309,18 @@
     <t>Jackie has extraordinary customer service skills. The room was immaculate and on the first floor like I asked for due to my asthma. Extended Stay was really nice. Last night was our first time to ever stay at this place. All the other motels were booked due to government conventions, and the others that weren’t booked jacked their prices up astronomically, not ESA. They were extremely reasonable.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
   </si>
   <si>
     <t>Jackie has extraordinary customer service skills. The room was immaculate and on the first floor like I asked for due to my asthma. Extended Stay was really nice. Last night was our first time to ever stay at this place. All the other motels were booked due to government conventions, and the others that weren’t booked jacked their prices up astronomically, not ESA. They were extremely reasonable.More</t>
   </si>
   <si>
-    <t>Jon M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r573074407-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>573074407</t>
-  </si>
-  <si>
-    <t>04/13/2018</t>
-  </si>
-  <si>
-    <t>EXCELLENT!!!!</t>
-  </si>
-  <si>
-    <t>First time here. On business trip. Everything was top notch here. Only stayed one night but I see that people do stay extended time. Nice little kitchenette with frig and sink. Nice size room. Great water pressure in shower. Bedding a little stiff but ok. Great pillows tho. TV nice and easy to use. Lobby has nice area for breakfast and I guess dinner. Workout area big and they have a pool for kids. Small business area in lobby too. All the staff were very nice. Located in a great area too!!MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded April 13, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 13, 2018</t>
-  </si>
-  <si>
-    <t>First time here. On business trip. Everything was top notch here. Only stayed one night but I see that people do stay extended time. Nice little kitchenette with frig and sink. Nice size room. Great water pressure in shower. Bedding a little stiff but ok. Great pillows tho. TV nice and easy to use. Lobby has nice area for breakfast and I guess dinner. Workout area big and they have a pool for kids. Small business area in lobby too. All the staff were very nice. Located in a great area too!!More</t>
-  </si>
-  <si>
-    <t>mrsdmajor1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r571903094-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -240,9 +336,6 @@
     <t>Choose a different hotel.  The reviews do not do the description of this hotel Justice. You need to dig a little deeper and go to another hotel. The location is great but the hotel is not the best. I stay at a lot of hotels and this one is not good.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded April 11, 2018</t>
   </si>
   <si>
@@ -252,9 +345,6 @@
     <t>Choose a different hotel.  The reviews do not do the description of this hotel Justice. You need to dig a little deeper and go to another hotel. The location is great but the hotel is not the best. I stay at a lot of hotels and this one is not good.More</t>
   </si>
   <si>
-    <t>sethyoung007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r568146561-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,9 +372,6 @@
     <t>We didn't have any issues with the people or the room. We would have liked more of a section with the breakfast offered besides granola bars or oatmeal. I believe there were muffins at one point, but nothing left when we got there.( Couldn't find anyone to ask to get some more)More</t>
   </si>
   <si>
-    <t>William Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r566353749-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,9 +396,6 @@
     <t>I enjoyed my stay here except for one issue.  The internet (wi-fi) at this site is terribly slow and causes me frustration even when simply trying to read my emails.  I had problems connecting a couple of my devices and then the front desk gave me a bad number to reach technical support.  I had to Google the company to find a good number.More</t>
   </si>
   <si>
-    <t>joe b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r565743266-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -339,9 +423,6 @@
     <t>I wouldn’t stay here again if I had to sleep outside, in the 3 month’s we stayed here they moved us 6 times,1 time because the kitchen sink was overflowing because the pipes in the walls were clogged. One time we moved because they tried to put us in a two bed room but the A/C didn’t work, another time we were bitten all over our bodies by bedbugs, the hotel told us to go to the urgent care and they would reimburse us, we didn’t have insurance because we just moved to Ft.Worth, we did go to urgent care and had to use our own money. It was bedbugs but the hotel told us to take our dogs and get flea dipped, they said it might be flea’s,no flea eggs or flea dirt or flea larvae was found, it cost me another $150, the hotel gave us $20 in quarters and said go wash our clothes,one room had cockroaches coming in and out more than we did, in the hotel manager said it was because of the rain, for a day and a half the hotel didn’t have any toilet paper, we had to go buy our own. The hotel manager told us to move to the hotel at another address , so we moved to a room with two beds and was very spacious, it was a wheelchair accessible room, I specifically asked if we were going to...I wouldn’t stay here again if I had to sleep outside, in the 3 month’s we stayed here they moved us 6 times,1 time because the kitchen sink was overflowing because the pipes in the walls were clogged. One time we moved because they tried to put us in a two bed room but the A/C didn’t work, another time we were bitten all over our bodies by bedbugs, the hotel told us to go to the urgent care and they would reimburse us, we didn’t have insurance because we just moved to Ft.Worth, we did go to urgent care and had to use our own money. It was bedbugs but the hotel told us to take our dogs and get flea dipped, they said it might be flea’s,no flea eggs or flea dirt or flea larvae was found, it cost me another $150, the hotel gave us $20 in quarters and said go wash our clothes,one room had cockroaches coming in and out more than we did, in the hotel manager said it was because of the rain, for a day and a half the hotel didn’t have any toilet paper, we had to go buy our own. The hotel manager told us to move to the hotel at another address , so we moved to a room with two beds and was very spacious, it was a wheelchair accessible room, I specifically asked if we were going to be moved another time and the hotel clerk said we would not have to move anymore, two days later we were told to move again.There were numerous lightbulb’s that I had to replace like the one’s in the stove vent was out in every room, there were many more issues than I mentioned, I called corporate office probably 7 times with absolutely no help, I guess you get what you pay for.I hope it helps people with this review.More</t>
   </si>
   <si>
-    <t>creamer12345</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r563253163-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -360,9 +441,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded February 28, 2018</t>
   </si>
   <si>
@@ -372,9 +450,6 @@
     <t>Super service  manager went out of her way to help with a tv problem. Manager was very helpful and very kind she is also very patient and very nice to help out my situation thank you so much for you serviceMore</t>
   </si>
   <si>
-    <t>Robert B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r563644318-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -396,9 +471,6 @@
     <t>ESA Cityview has been my residence since April 2011. As such, I have much familiarity with the Hotel chain as represented by the management and employees of this hotel.  When I travel, I stay in an ESA hotel whenever available. My experience is that ESA employees are very responsive to the needs of their guests.  I believe that each ESA hotel is a home away from home.More</t>
   </si>
   <si>
-    <t>lydiar445</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r559452634-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -423,9 +495,6 @@
     <t>Everything went well with this visit. We will definitely be staying with you again. Only problem was reserving room online. For some reason it would not let me reserve room with out charging my card 1st. More</t>
   </si>
   <si>
-    <t>Chris B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r555860541-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -453,9 +522,6 @@
     <t>This is a extended stay property!!!  The people who stay there are actually residents, not guests.  People were cooking in their rooms and you were subject to the aroma where you liked it or not. The rooms are dated, carpet is horribleMore</t>
   </si>
   <si>
-    <t>Robert R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r552007160-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,9 +549,6 @@
     <t>Bed was not made the bottom  sheet was not put on just thrown under the covers. Thedoor handle to the bathroom fell off I told the staff it was never fixed. Turned on the light at night and there were roaches every where. It was terrible to say the least. I would not recommend this motel! More</t>
   </si>
   <si>
-    <t>domp401</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r550127602-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -510,9 +573,6 @@
     <t>Cheap is good, but good thing I did not stay long. People are ok but they need to trash the place and start over. The handyman they use must need glasses.  First time im there and live 1200 miles away..More</t>
   </si>
   <si>
-    <t>FWFCBen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r548088628-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,9 +600,6 @@
     <t>I stayed here for several days in late October and early November.  The staff was very nice and helpful fulfilling my needs.  You ask for the items you need to stock the kitchen and the staff brings them to your room.  I enjoy cooking a hot breakfast so the kitchen with a full size refrigerator was a nice addition.  They do serve muffins and coffee in the reception area and I helped myself to both, but they will also provide you with a coffee maker and coffee if you ask.The location is great, close to I-20, I-820, Hwy 183 and the Chisholm Trail Parkway,  There is a Costco close, a Sam's Club close, a Super Target next door and numerous restaurants.  I recommend Cousin's BBQ,If you want a clean room with a kitchen, close to freeways that will take you everywhere in the area with a reasonable price, I would recommend this Extended Stay.More</t>
   </si>
   <si>
-    <t>I395MCsarae</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r545804904-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -567,9 +624,6 @@
     <t>It was good for what it was.   Nothing fancy.  The staff was great. Once I got to my room,  the front desk called to follow up and make sure everything looked good in the room. Great location, fair price, just an older hotel. A few updates is all it needs.More</t>
   </si>
   <si>
-    <t>942sylviaa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r545188757-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -594,9 +648,6 @@
     <t>For the price, I am very pleased with this hotel. I would recommend to families or people traveling looking to save money.  The only complaint I have is the internet was not working when I got here and it took two days to resolve. When notifying front desk, they only give you a number to call. However, with that said I would stay at this hotel again because of the price and location. Also, the hotel was not dirty and felt clean and well maintained.More</t>
   </si>
   <si>
-    <t>Chris P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r544702214-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -612,9 +663,6 @@
     <t>I just want to mention Cara for her outstanding service. I had an issue and she took care of it immediately. She always smiled and made me feel right at home she also has a great personality and made my stay a pleasure. The cityview location is lucky to have her.</t>
   </si>
   <si>
-    <t>Cody G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r544702163-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -633,9 +681,6 @@
     <t>I would like to tell everyone that the city view location is great. their service is amazing especially Cara she is kind and very helpful, because of her I would gladly stay here again in the future. The only thing I could think of that needs improvement is the ice cream in the laundry room. Brain freeze? More like freezer burn. But anyway thank you caraMore</t>
   </si>
   <si>
-    <t>P7055JOchristopherb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r539596377-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -660,9 +705,6 @@
     <t>Great location on the south side of Ft. Worth, but the place smelled horrible and common areas were dirty, which made me wonder how clean my room and bed really were. I thought I got a deal at $75/night but I wouldn't pay more than $40 if I went back, which I wouldn't. Nice staff. Bad smells. The same dirt and trash in the elevator when I arrived, was there 4 days later!!!  On the good side, it was quiet at night and had plenty of parking.More</t>
   </si>
   <si>
-    <t>spannishgirl69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r538291285-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -687,9 +729,6 @@
     <t>My mother in law needed to stay here since her home had some plumbing issues. We had problems with the dates, because the work was not done on the day we had scheduled to check out. I had called the front desk as soon as I learned her home would not be ready. The front desk told me I had the room for 5 more days. The next day Extended Stay America called saying checkout was at 11 and she needed to go. I explained to the managers that I had called the day before and reserved the room for 5 more days. After a little sparring they agreed to honor the front desk reservation I had made. I really appreciate the integrity of their decision and totally recommend them for any stay!More</t>
   </si>
   <si>
-    <t>REJ1957</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r535269403-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -714,9 +753,6 @@
     <t>Found this chain by accident in TN and then again in Ft. Worth. Surprised by low price for hotel in medical area. Great if you need the entire kitchen setup as everything is provided. Staff was very good at both properties I've stayed at.More</t>
   </si>
   <si>
-    <t>Cynthia R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r532360325-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,9 +777,6 @@
     <t>It is the best hotel to stay at. The staff there is amazing. Thank you to Sarah and Rachel for always help us out when we needed it.  You do have easy access to the freeways, a lot of different restaurants to go to, you have a trail to walk. Every beautiful area. More</t>
   </si>
   <si>
-    <t>scottgray1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r528170983-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -771,9 +804,6 @@
     <t>Hotel manager Jodi Gray is excellent at making sure employees give maximum effort to ensure guests are given quality service and an enjoyable stay. Hotel desk clerk Sierra goes above and beyond to make sure guests have everything they need and always has a positive attitude when providing assistance. More</t>
   </si>
   <si>
-    <t>Debbie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r526735551-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -798,9 +828,6 @@
     <t>Will not be staying here again on our return trips. We have used Extended Stays before but this is by far the worst.First off, due to business and going from City to city we almost always get early check-ins. Here they said we could (1pm) for an extra $25. No thanks! We'll kill 2 hours somewhere.Also, additional charges for any house keeping needed. (See snapshot). Never saw that before.Bathroom was large but no counter space at all. That is an inconvenience. 1 little bar of soap you need to take from sink to shower. As far as heat/cooling system... Something is wrong when you have it set at 65 and even tho it runs occasionally it doesn't get anywhere near cool. And believe me, we normally set the thermostat at around 75, so 65 should have been freezing us out.Definitely an older facility, which is not in itself a bad thing, but not kept up very wellSpoke to a gentleman in the elevator, who volunteered that he would not stay here again. He was on a different floor and said his room and the whole floor smelled bad.Use this hotel only as a last resort and don't expect too much.More</t>
   </si>
   <si>
-    <t>B6986TNerinh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r505493611-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -828,9 +855,6 @@
     <t>This is a great hotel with the friendliest staff. What it lacks in amenities (no pool) compared to other hotels is made up for by having all the comforts of home available at a very reasonable price and the best staff ever!Guest satisfaction is truly their goal and that makes all the difference in a great stay.More</t>
   </si>
   <si>
-    <t>Ronald B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r505136583-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -855,9 +879,6 @@
     <t>Best deal in the area on my day of stay. Exceeded my expectations and very comfortable bed. I will definitely come back to this one dince its perfectly located to where i want to be . Only thing was the internet seems to forget to go through my room as i cant get the signal and the neighbors were a little loud and i hear some banging from the distance.More</t>
   </si>
   <si>
-    <t>CervezaTejas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r504757349-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -876,9 +897,6 @@
     <t>The room was ok at best. Air conditioning was cool but not cold enough versus 100 degree outside temp. There was no hair dryer in room or available at the front desk. There was a hair ball stuck to the bath room wall. Hair on the floor too. Not real clean. Over all was ok.More</t>
   </si>
   <si>
-    <t>Alicia A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r504072999-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -903,9 +921,6 @@
     <t>Only stay here if you have nowhere else to go. Half my lamps were not working, there was a roach in the kitchen area, halls were smelly and noisy, no hot water in the shower... worst experience ever at a hotel.More</t>
   </si>
   <si>
-    <t>debbiemB1834PV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r503719187-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -924,9 +939,6 @@
     <t>Did not honor message from Booking.com. Housekeeping did not come by daily.  Had to call down for towels and to go get them. Found roaches in room on last day of our stay. Back door to facility was always openMore</t>
   </si>
   <si>
-    <t>butterfly0105</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r501943838-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -954,9 +966,6 @@
     <t>I have been staying at this hotel for 8 months with my children. The management and staff were very friendly and excellent. They always attended to any needs or concerns we had. Since the new manager (Jody Gray) has taken over, the hotel has been turned upside down. I have never met a more unprofessional, racist, and harassing manager in my life. Certain guests here get special treatment while others do not. I got a notice for my account being negative even though I was not informed. I have had the police called on me twice and she also tried to have my dog removed and got upset with the staff because they did not lie to Animal Control for her. I have made several complaints but when the DM called me she did not want to speak with me about my concerns, she only wanted to speak about money. I ended the conversation immediately. I have spoken with human resources and am waiting for a response from them. I have already spoken with an attorney and a couple of news channels regarding the behavior that is going on at this establishment. The other employees here are great but they can only do what they are told to do by their Manager....More</t>
   </si>
   <si>
-    <t>163leticiaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r495942116-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -981,9 +990,6 @@
     <t>When I arrived at the hotel and walked in to check in the guy was with another customer for about 10 min I was not pleased cause I had to wait. Then the guy was taking his time to still check me in...More</t>
   </si>
   <si>
-    <t>KngovKngs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r495419863-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1008,9 +1014,6 @@
     <t>Management and staff care about your needs and will accommodate you no matter what. The rooms are very clean. We love the location and that's why we would recommend this hotel to everyone! We have made another reservation for a ten day stay! More</t>
   </si>
   <si>
-    <t>sherrieb979</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r495393309-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1026,9 +1029,6 @@
     <t>The hotel is located in a very busy retail and residential area! It is surrounded by restaurants, shopping, auto dealers, salons, and drugstores! You can walk less than 5 min to everything imaginable!More</t>
   </si>
   <si>
-    <t>Randommomandwife</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r493617577-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +1044,6 @@
     <t>Stayed here with a teen group,  Came home with bed bugs.A/C broken and barely cooled.  Nothing was stocked in rooms had to ask for everything.  Breakfast was less than stellar.  First room they gave us wasn't even cleaned from last guest. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Fort Worth - City View, responded to this reviewResponded June 19, 2017</t>
   </si>
   <si>
@@ -1056,9 +1053,6 @@
     <t>Stayed here with a teen group,  Came home with bed bugs.A/C broken and barely cooled.  Nothing was stocked in rooms had to ask for everything.  Breakfast was less than stellar.  First room they gave us wasn't even cleaned from last guest. More</t>
   </si>
   <si>
-    <t>charlesdG1793BJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r493245614-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1083,9 +1077,6 @@
     <t>Great stay.  Had kitchen with microwave refrigerator and freezer… Had the  gym to workout in…  location was perfect… Could get to and from very easily… Had no problems with staff or the maids…  The room was clean and again no problems… More</t>
   </si>
   <si>
-    <t>LuvMuscle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r487696489-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1110,9 +1101,6 @@
     <t>It was just a bit dirty for my expectations. My non smoking room had the smell of smoke and the smoke detector was covered. I'm sure it was from the previous guest but the hotel should have done more to rectify that. The staff was very friendly!More</t>
   </si>
   <si>
-    <t>Anna M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r483987814-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1137,9 +1125,6 @@
     <t>Good staff good foods good service Room is comfortable and facilities are good. There is a bar fridge now. Staff are very friendlyHad to move rooms due to problems with air conditioning and then air conditioning didn't work in second room. This was fixed the following day.. While staff are very friendly and helpful, they are often not prompt in addressing issues. The hotel wants full payment upfront. I would advise against complying with this demand.More</t>
   </si>
   <si>
-    <t>whocares85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r483559835-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1164,9 +1149,6 @@
     <t>I had a really great experience. My  favorite thing about my visit was the great service I received from Tony the front clerk. He was very patient and very polite. He made sure we had everything we needed and always  checked on us when we left and returned. Tony also gave great recommendations for places to eat and visit. He is an outstanding employee who gos out of his way for his guest.More</t>
   </si>
   <si>
-    <t>Jamie L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r481934470-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1176,6 @@
     <t>This hotel is not a bad place to stay until you find apartments or house of new in area! However the management from what I can see is/was problem . They consistently run out of breakfast/ toilet paper and trash bags. Tiffany and Steve are best workers and help in every way. Actually go above and beyond to help. Tony is very accommodating and helpful. Now that Desiree is gone the place will turn around. Desiree confronted me in A very unprofessional way in front of employees on a review I sent few mths ago. I was asked not to send those and email her. The new manager seems to be on top of things and brings a positive vibe to front ! Overall it's comfortable!More</t>
   </si>
   <si>
-    <t>Carmen B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r481575267-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1224,9 +1203,6 @@
     <t>The room looked great on the web. When my daughter and I arrives, we were very disappointed. The room was large but it felt humid, smelled like mildew and was dark. I had to keep the A/C on to get rid of the smell. We were out all day running errands, and when we got back the room was not made or cleaned. When we asked, we were told that we wouldn't get cleaning service because we were staying for less than a week. That meant that we would not get clean towels or linens and the bed would be unmade. Staff did come in, though, to turn the A/C off, so when we got back the smell of mildew permeated the whole room. I will never stay in such a place again.More</t>
   </si>
   <si>
-    <t>Ridge S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r480160875-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1254,9 +1230,6 @@
     <t>You get what you pay for. Steve is hardest working employee I've seen. Overall staff is friendly and helpful. Tv been out over a week so that's been a challenge being stuck in room. Hotel property stays full of trash due to short staffed I think. Overall it's affordable. More</t>
   </si>
   <si>
-    <t>Allison M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r479593764-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1281,9 +1254,6 @@
     <t>Have been here for a few weeks while house hunting. In general, not bad. Cheap and you're getting what you pay for... My biggest complaint is the satellite TV and internet connection are HORRIBLE!! I upgraded my internet this week in hopes of being able to do any work in the evenings, but it seems to be worse. And only national channels available over-the-air are working this week. More</t>
   </si>
   <si>
-    <t>Amenze A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r479314242-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1308,9 +1278,6 @@
     <t>I've been staying in Fort Worth for work and I wanted to stay somewhere quiet and safe. And this place has been exactly that. All the staff has been very kind and attentive especially Tony. I definitely would stay here again in the future. More</t>
   </si>
   <si>
-    <t>Haila S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r479004444-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1338,9 +1305,6 @@
     <t>I am staying on a long term basis and appreciate that my room is out of the people traffic flow and noise. I can enjoy a night's sleep without hearing the people on either side of me. The amenities are very good and the housekeeping staff are very thorough when cleaning my room. Most of all the staff is amazing. They make it clear that they appreciate I am staying with this hotel and when I come back into the hotel at the end of the day, they welcome me back. At the end of a day that is wonderful to hear. I am unable to name all staff but the names that I can remember are Tony and Steve. Staff is always willing to try to accommodate me.More</t>
   </si>
   <si>
-    <t>bigicon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r478378214-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1365,9 +1329,6 @@
     <t>Made reservations  on Thursday  march 20 th Friday   21 we drove to hotel n realized  hotel cancelled  my reservation  very disappointed  in this never ask if  they could help find me another hotel  this  was city view hotel fort worth terry oliver bigicon69@hotmail.comMore</t>
   </si>
   <si>
-    <t>Duane B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r475108945-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1395,9 +1356,6 @@
     <t>Stayed here while attending World Paint Horse Show at Will Rodgers memorial center. Accommodation was clean and comfortable and staff were very friendly and helpful. Excellent location with shopping, restaurants and bars all within walking distance. Rooms have full kitchens so if you want to cook you can. Will be staying here next time in Fort Worth. Have friends that stay here every year for the last 14 years.More</t>
   </si>
   <si>
-    <t>Tinkonthego0628</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r466396333-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1413,9 +1371,6 @@
     <t>Just got here this afternoon. Guy at front desk acts like it's an inconvenience that you are here. Sorry, but I think that's your job dude! You have to ask for things for your kitchen from the front desk, another inconvenience for Mr. Personality! Dog crap on all of the grassy areas around the building so watch your step. Gonna be here a week, so I may be up dating this. Stayed tuned.</t>
   </si>
   <si>
-    <t>madhu53</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r465669250-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1440,9 +1395,6 @@
     <t>I stayed at this Hotel recently. I had no problems - the stay was pleasant &amp; comfortable. It is a great location, right next to the Trinity River &amp; all the amenities.Sara at the Front Desk was particularly helpful. She was always courteous and attended to all my requests.P. MadhuMore</t>
   </si>
   <si>
-    <t>Lisa S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r462911008-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1461,9 +1413,6 @@
     <t>BAD News:  We rented a extended stay so that we could have a kitchenette but NOTHING was provided. No cups of any kind( not even the little plastic ones, usually found in the bathroom) We noticed a sign that mentioned that we would have to ask for a set of dishes to be brought up. I think it was an extra charge for the dishware, but we didn't bother with it.  Not a good breakfast either. Coffee was good.Good news: The price for the location is wonderful. The hotel was clean and quiet. We came to visit a family member in the hospital. We needed to leave a day early and they were very nice about it and credited it back to my card. Overall stay was pleasant.More</t>
   </si>
   <si>
-    <t>David C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r460500615-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1488,9 +1437,6 @@
     <t>OK I'm a picky person when it comes to hotels I've been around the country a few times and stayed in a lot of hotels some good some bad  this extended stay is very quiet the staff is friendly and  the rooms were clean the only thing bad about this place was a couple washers and dryers out of order but the upside is you are close to all the restaurants and stores literally walking distance  and the neighborhood is pretty nice :)More</t>
   </si>
   <si>
-    <t>Elizabeth R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r460374837-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1506,9 +1452,6 @@
     <t>Tony was a great host and worked to please our needs.  The television viewing was poor to non-existent. The room reservation system needs work, we were assigned the wrong room number when we first arrived and then someone else was assigned our room during the stay. Tony quickly fixed the issues and made us feel like valued guest.More</t>
   </si>
   <si>
-    <t>dejones39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r460216495-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1527,9 +1470,6 @@
     <t>We have been staying at the hotel while waiting for our apartment to be ready. All of the staff are very friendly and quick to answer any questions and follow up about any concerns. Tony is the staff member that I see the most and he is very helpful and so polite. He speaks as soon as he sees us and always asks how we are doing.More</t>
   </si>
   <si>
-    <t>Amandasmithers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r459708456-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1572,9 +1512,6 @@
     <t>This is hotel was has excellent customer service, rooms were clean. Front desk staff was very helpful and accommodating, they were happy to answer any questions I had about places around the area. I will definitely stay here again when I come to Ft. Worth.More</t>
   </si>
   <si>
-    <t>Buffbred</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r443382490-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1593,9 +1530,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>717parom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r437528325-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1620,9 +1554,6 @@
     <t>Front desk did not give much info about room, wifi, - anything.  The entrance in the hotel smelled bad and did not look appealing.  Taking the elevator to room made me feel terrible, smell, the look of dirty - but I kept a positive mind.  Getting off the elevator made my experience bad - Trash in hallway along with shoes.  Then we get to the room.  As soon as we opened the door it smelled horrible.  My little one said it smelled like garlic.  We opened windows and went out to eat.  Came back to the same smell, I just wanted to sleep and get the hell out the next day.  Pictures make it look like a good place, but after one night I was out. Won't be visiting or recommending this to anyone.More</t>
   </si>
   <si>
-    <t>Polasamoa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r433973165-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1650,9 +1581,6 @@
     <t>My wife and I run a hotel but the chain is not in the Dallas area, so I went to Priceline for the best deal. Priceline booked me Extended Stay and here we go. When I first  got to my Hotel to checked in the front desk was sitting down and playing on his phone. He seem put out that I was there and really lazy. He did not tell me where my room was or anything about the hotel. The hotel was old and dirty. I understand this because of budget and long term guest who is there for work can put damage to a hotel.  My hotel room was simple and nice no real issues. I can tell the housekeeping was below average. They did not check towels and put dirty stain towels back on the rack. Hair was left everywhere in the bathroom.  One front desk was wearing jeans and t-shirt with no hotel  ID. I thought he was guest using laundry. Breakfast was very small with minimum items require my corp. good coffee. First time, I stayed in hotel without a Ice Machine. Overall very little effort is put in the hotel Please never allow staff wear jeans, be on the phone for personal use and allow then sit down.It looks bad to guest. If someone is looking a simple hotel next to a lot of stores than this would be a hotel to get.More</t>
   </si>
   <si>
-    <t>mrwhistle2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r429039366-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1668,9 +1596,6 @@
     <t>checked in for a week long stay.....no dishes available, no face cloths on several occasions. What next ?......no toilet paper? Staff act like they hate their jobs....haven't seen a single smile since I got here. No dress code apparently. Plan to ask for a manager today!!</t>
   </si>
   <si>
-    <t>Rebecca H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r418457202-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1698,9 +1623,6 @@
     <t>Super dirty.  Gross greasy fingerprints everywhere so you can actually see it wasn't cleaned well at all.  Floors were filthy.  You can see begin the counter where there's old food wrappers and unkept work space.   It's just really icky.  I didn't even stay.  Wasted money.More</t>
   </si>
   <si>
-    <t>Shanya2101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r414774014-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1728,9 +1650,6 @@
     <t>I love coming to City View Extended Stay America...It's always clean and the staff is great. I love the kitchen area, being able to cook a hot meal after a business meeting is great! The water also gets really hot, perfect for melting away the stress of a long day. My hotel of choice whenever I need to book a stay locally.More</t>
   </si>
   <si>
-    <t>A'shanta J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r410823907-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1755,9 +1674,6 @@
     <t>I've stayed here 3 different times now; from a one week stay to a 2 month stay and each time has been great overall. The room has everything I need in a comfortable setting, great neighborhood and friendly staff.  I do wish this room had a leather recliner like my last two stays but the leather stationary chair is okay. There's adequate parking, breakfast snacks, a laundry room on site and they keep the hotel pretty clean.  This is my hotel of choice when I need a short or long term stay. More</t>
   </si>
   <si>
-    <t>mphil2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r398413903-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1776,9 +1692,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Ashley T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r395803559-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1794,9 +1707,6 @@
     <t>Cynthia makes the entire process of staying in a hotel a breeze. She goes above and beyond and doesn't seem to mind if I bother her 50 times a day. :P By far the best customer service I've experienced.</t>
   </si>
   <si>
-    <t>Stephanie C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r395657092-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1821,9 +1731,6 @@
     <t>We stayed here a few weeks ago and Cynthia was such a breath of fresh air. She had the best customer service I have ever experienced! The room was great, but I can not say enough about Cynthia and her attention to detail!!! I would stay at the Bates motel as long and I was being served by Cynthia!More</t>
   </si>
   <si>
-    <t>616Mel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r395266544-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1851,9 +1758,6 @@
     <t>Cynthia checked us in and she has been extremely helpful and nice. She has gone above and beyond to help with all requests we have had. We has helped us find things close to the hotel and has offered helpful suggestions when questions were asked.More</t>
   </si>
   <si>
-    <t>allisonmedford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r393723944-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1869,9 +1773,6 @@
     <t>The room I booked was not available when I checked in so I had to have 2 separate rooms for my family of 4 and was not comped for my inconvenience.  The beds are also very uncomfortable and the breakfast is a joke!</t>
   </si>
   <si>
-    <t>Leonid L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r391898100-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1896,9 +1797,6 @@
     <t>I was checked in by Cynthia. She was extremely helpful and very nice while checking me in. Everyone working at front desk throughout the day and night were always willing to help! Had to switch rooms due to my phone signal on one side of the building and Cynthia was again helpful and accommodating.More</t>
   </si>
   <si>
-    <t>Bob A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r385069928-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1926,9 +1824,6 @@
     <t>Nice clean extended stay hotel.  It felt like home. The staff is very friendly and willing to help you out.  I was there for three months and had not issues at all.  Very close to everything I needed.  You won't be disappointed.More</t>
   </si>
   <si>
-    <t>Thomas M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r383361029-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1950,9 +1845,6 @@
     <t>Thought I booked a "Hotel room"!With common expectations. Be advised: make you own iceNo daily room service"Breakfast" is a JOKE Virtually no front desk service...hardly ever there; walk away into laundry room when you approach; surprised I was still there after 10 minutes... My guess, using or drinking. Listed as non smoking; obviously just recent as the place reeks of past smoke. Research of "fine print" does say what their Version of room service is. Who checks the fine print about room service in a HOTEL?Will never stay here again!!!!!More</t>
   </si>
   <si>
-    <t>NICNACTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r379941699-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1971,9 +1863,6 @@
     <t>If this review was just based on how nice the room is then I would give 5 stars! The room is an amazing value for the price. Very clean, has a little kitchen with a refrigerator, cabinet, sink, microwave and stove. The only complaints are that at 8:30 this morning someone was vacuuming out in the hallway, I was all ready awake so it didn't bother me but that doesn't seem like something most guests would appreciate if they are trying to sleep in. Another thing is that they advertise complimentary breakfast and when we went down for breakfast and realized they had no breakfast area we asked the front seat lady and she pointed to a little cart right in front of the front desk that had some different granola bars, coffee and packets of oatmeal which was not what we expected from what was advertised when we booked the room. The AC's could use some improvements unless it was just ours, we were very hot during the night and we had it down to 60, the beds are not the most comfortable but they aren't too bad.  Other than that they stay was great especially for the price! The More</t>
   </si>
   <si>
-    <t>Julie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r374380783-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1992,9 +1881,6 @@
     <t>We stayed a month here. They have a complete kitchen with everything you need. Coffee pot, toaster, pans, dishes, silverware. Full size refrigerator and stove.  Cabinets and dining table.  Even a dish washer! Very large room with desk. Sleeper sofa sitting area. They also have a large laundry room with plenty of new washers and dryers! Huge work out room. Even an ice cream vending machine! Very nice and safe area. Very convenient to Everything!  A lake out the back door. Literally out the back door!I felt like the staff were family by the time we had to go to another town. Desiree, Porsche, Ashley, Bobby, Jeff and James were all just Great! I absolutely loved my stay there! More</t>
   </si>
   <si>
-    <t>Marissa B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r373774285-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2010,9 +1896,6 @@
     <t>They are so nice here and its extremely clean. Free breakfast and coffee in the morning. I would recommend this hotel to anyone. Plus its non smoking, and there are tons of resturaunts right outside the front door. My only complaint is that there isnt a pool. Other than that, this is the perfect place to stay. Also it's super quiet.  If you want a comfortable stay with a nice staff and a friendly atmosphere as well as tons of places to eat, then stay here.</t>
   </si>
   <si>
-    <t>Mitul A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r368854151-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2040,9 +1923,6 @@
     <t>Walked into lobby and they lost our reservation. We had requested a rollaway bed but did not receive one..After we confirmed we would receive one. Then our room was missing all appliances/pots/silverware from kitchen. To top it off our bathroom door was broken. The a/c was not working. And the lamp was missing the lightbulb. I would not stay here with childrenMore</t>
   </si>
   <si>
-    <t>Georgianna W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r365157519-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2067,9 +1947,6 @@
     <t>Worst stay ever, requested rollaway at check in finally got it 3 days later. Rollaway was so terrible still having back issues. No Hangers at all, ask front desk said searched whole hotel none anywhere. Was to be a grab and go breakfast until 10am by 9:15am coffee was put up muffins were dry and old really disappointed especially what we were going through with our mom  More</t>
   </si>
   <si>
-    <t>Nawal T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r361526628-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2094,9 +1971,6 @@
     <t>Spacious neat rooms.  Very convenient and excellent value.  Helpful friendly staff. Just don't rely on the breakfast, just muffins and fruits + a very good coffee.   Will definitely recommend it and come back again More</t>
   </si>
   <si>
-    <t>Dave R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r349257946-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2124,9 +1998,6 @@
     <t>The staff is not only courteous, but friendly and always willing to help. Every one of them is like a concierge from a five Dimond European hotel. Housekeeping comes as often as you need them and will accommodate your schedule. I love the kitchenette and it's more than big enough for meMore</t>
   </si>
   <si>
-    <t>iPhiLgreat</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r341096644-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2154,9 +2025,6 @@
     <t>This is a clean professional hotel. Plenty of shopping nearby and the staff was professional. Could do with a few more outlets in the room for phone charging, but it was only for a night so it was manageable. Nothing special, yet no complaints.More</t>
   </si>
   <si>
-    <t>Calvin Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r334494838-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2175,9 +2043,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>944jayj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r300944239-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2205,9 +2070,6 @@
     <t>Neat, quite and clean - staff makes you feel like family - all of them are super nice ! Grab and go breakfast is perfect for me but there are lots of restaurants very close. Plenty of parking space. Target, Walmart, Best Buy, Lowes, Cosco, Walgrens, all within minutes.More</t>
   </si>
   <si>
-    <t>Portia H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r292613520-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2235,9 +2097,6 @@
     <t>I stayed here overnight on July 24, 2015.  The lobby is very nice, and the front desk worker who checked me in, Samantha, was very friendly.  She kept getting interrupted with people asking for things while trying to check me in, but she managed to hold a conversation with me and tend to the requests of the other guests with no problem.  The hotel itself is in the middle of a shopping district, so finding a place to eat and shop were literally right across the street.  The room was a nice size and clean.  The bed was comfortable and the hotel was quiet.  My only two problems with the room were that it smelled like fried food, which I adjusted to once I was in there for awhile, and that the bathroom light was loud and irritating when I first flipped it on, but I'm sensitive to sounds like that.  Overall, the hotel is very nice and well-priced. I recommend staying here.More</t>
   </si>
   <si>
-    <t>Janice W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r291215969-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2262,9 +2121,6 @@
     <t>I've been looking at reviews of this hotel, and I almost think they were plants - I've lived here since April, 2015, and off and on for 2 years before that, and I've never seen the negative things in those reviews. I've never stayed anywhere else where the staff were so wonderful, friendly, and helpful. The entire hotel has been remodeled within the past year, outside and in. This is one of the most comfortable beds I've ever slept in. The AC is perfect. I love it here and plan to live here for years.More</t>
   </si>
   <si>
-    <t>Strathmorefarm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r286242861-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2289,9 +2145,6 @@
     <t>We stayed here for 6 nights, the staff were very friendly and helpful, rooms were of reasonable size, clean and tidy. A/C worked perfectly, which was a relief as it was so hot! Good location, just across the road from shopping area and food places. One down side was that house keeping only come every four days, so we had to go get clean towels, but overall I was very happy and would stay there again!More</t>
   </si>
   <si>
-    <t>Linda W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r284542967-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2317,9 +2170,6 @@
   </si>
   <si>
     <t>The location is great.  Close to the bowling alley which had youth state tournament.  Cousins Bar-B-Que located next to it.  Had a good time except the beds were very firm.  First time to stay at this type of hotel, but it serves your needs.More</t>
-  </si>
-  <si>
-    <t>gphirps</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r274701162-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
@@ -2365,9 +2215,6 @@
 It is supposedly a non-smoking hotel, that reeks of cigarette smoke all day and marijuana late at night.
 The staff was terrible and non-attentive (except for one employee who was actually trying)
 The vibe around the whole area is sketchy... (did I mention that my car and...Except for one gentleman, the staff was terrible.  They do not care about their guests.  They would rather assist their friends that are loitering in the lobby than actual paying customers.  Why a poor review?I reserved a room over the phone, which took 20 mins.  When I got to the hotel, they didn't have my reservation and had to spend another 20 mins giving the same info I gave on the phone.  Unfortunately, they locked me into a 7 day stay that I couldn't get out of once I realized the mistake I had made.... staying at this terrible hotel.The lobby, floors and hallways were dirty.There are bugs in the bed linens - I got a rash on my skin.  My dog had to go to the vet after staying here two weeks and her fur started falling out.My car was broken into.My credit card was charged without my authorization and the lady that charged me had another employee call to let me know they had charged my card - A DAY LATER and without further explanation.  I am currently disputing this charge with my credit card company.It is supposedly a non-smoking hotel, that reeks of cigarette smoke all day and marijuana late at night.The staff was terrible and non-attentive (except for one employee who was actually trying)The vibe around the whole area is sketchy... (did I mention that my car and another were broken into??) The "breakfast" is a granola bar and a dixie cup of crappy coffee.Do not stay here.  The rates are high, the place is dirty and unsafe and the staff could care less about your needs/comfort.  I won't ever stay at another Extended Stay America again.More</t>
-  </si>
-  <si>
-    <t>David76054</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109175-r265234079-Extended_Stay_America_Fort_Worth_City_View-Fort_Worth_Texas.html</t>
@@ -2890,47 +2737,43 @@
       <c r="A2" t="n">
         <v>38328</v>
       </c>
-      <c r="B2" t="n">
-        <v>66956</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2942,60 +2785,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38328</v>
       </c>
-      <c r="B3" t="n">
-        <v>15757</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3007,220 +2846,192 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38328</v>
       </c>
-      <c r="B4" t="n">
-        <v>136186</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38328</v>
       </c>
-      <c r="B5" t="n">
-        <v>136187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38328</v>
       </c>
-      <c r="B6" t="n">
-        <v>40193</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="n">
         <v>5</v>
       </c>
@@ -3232,60 +3043,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38328</v>
       </c>
-      <c r="B7" t="n">
-        <v>136188</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3297,200 +3104,198 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38328</v>
       </c>
-      <c r="B8" t="n">
-        <v>136189</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
         <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" t="s">
-        <v>112</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>115</v>
-      </c>
-      <c r="X8" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38328</v>
       </c>
-      <c r="B9" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38328</v>
       </c>
-      <c r="B10" t="n">
-        <v>136190</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3512,286 +3317,262 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38328</v>
       </c>
-      <c r="B11" t="n">
-        <v>6529</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>3</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38328</v>
       </c>
-      <c r="B12" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38328</v>
       </c>
-      <c r="B13" t="n">
-        <v>136191</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
         <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38328</v>
       </c>
-      <c r="B14" t="n">
-        <v>79001</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="n">
         <v>5</v>
       </c>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -3800,544 +3581,514 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38328</v>
       </c>
-      <c r="B15" t="n">
-        <v>136192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38328</v>
       </c>
-      <c r="B16" t="n">
-        <v>136193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="n">
         <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38328</v>
       </c>
-      <c r="B17" t="n">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38328</v>
       </c>
-      <c r="B18" t="n">
-        <v>136194</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38328</v>
       </c>
-      <c r="B19" t="n">
-        <v>136195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>205</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38328</v>
       </c>
-      <c r="B20" t="n">
-        <v>136196</v>
-      </c>
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38328</v>
       </c>
-      <c r="B21" t="n">
-        <v>136197</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>229</v>
-      </c>
-      <c r="X21" t="s">
-        <v>230</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38328</v>
       </c>
-      <c r="B22" t="n">
-        <v>11440</v>
-      </c>
-      <c r="C22" t="s">
-        <v>232</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s">
-        <v>170</v>
-      </c>
-      <c r="O22" t="s">
-        <v>53</v>
-      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -4348,190 +4099,194 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38328</v>
       </c>
-      <c r="B23" t="n">
-        <v>136198</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="O23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="X23" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38328</v>
       </c>
-      <c r="B24" t="n">
-        <v>22655</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="X24" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38328</v>
       </c>
-      <c r="B25" t="n">
-        <v>136199</v>
-      </c>
-      <c r="C25" t="s">
-        <v>260</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4553,728 +4308,658 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="X25" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="Y25" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38328</v>
       </c>
-      <c r="B26" t="n">
-        <v>12033</v>
-      </c>
-      <c r="C26" t="s">
-        <v>270</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38328</v>
       </c>
-      <c r="B27" t="n">
-        <v>136200</v>
-      </c>
-      <c r="C27" t="s">
-        <v>279</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s">
-        <v>64</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38328</v>
       </c>
-      <c r="B28" t="n">
-        <v>23223</v>
-      </c>
-      <c r="C28" t="s">
-        <v>286</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>114</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38328</v>
       </c>
-      <c r="B29" t="n">
-        <v>136201</v>
-      </c>
-      <c r="C29" t="s">
-        <v>295</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="X29" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="Y29" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38328</v>
       </c>
-      <c r="B30" t="n">
-        <v>136202</v>
-      </c>
-      <c r="C30" t="s">
-        <v>302</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="X30" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38328</v>
       </c>
-      <c r="B31" t="n">
-        <v>136203</v>
-      </c>
-      <c r="C31" t="s">
-        <v>312</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>275</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="N31" t="s">
-        <v>308</v>
-      </c>
-      <c r="O31" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="X31" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="Y31" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38328</v>
       </c>
-      <c r="B32" t="n">
-        <v>136204</v>
-      </c>
-      <c r="C32" t="s">
-        <v>321</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38328</v>
       </c>
-      <c r="B33" t="n">
-        <v>136205</v>
-      </c>
-      <c r="C33" t="s">
-        <v>330</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="X33" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="Y33" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38328</v>
       </c>
-      <c r="B34" t="n">
-        <v>136206</v>
-      </c>
-      <c r="C34" t="s">
-        <v>336</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s">
-        <v>342</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38328</v>
       </c>
-      <c r="B35" t="n">
-        <v>136207</v>
-      </c>
-      <c r="C35" t="s">
-        <v>346</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
@@ -5283,77 +4968,79 @@
         <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38328</v>
       </c>
-      <c r="B36" t="n">
-        <v>136208</v>
-      </c>
-      <c r="C36" t="s">
-        <v>355</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -5362,326 +5049,334 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38328</v>
       </c>
-      <c r="B37" t="n">
-        <v>3136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>364</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s">
-        <v>342</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38328</v>
       </c>
-      <c r="B38" t="n">
-        <v>136209</v>
-      </c>
-      <c r="C38" t="s">
-        <v>373</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="O38" t="s">
-        <v>74</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="X38" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="Y38" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38328</v>
       </c>
-      <c r="B39" t="n">
-        <v>57734</v>
-      </c>
-      <c r="C39" t="s">
-        <v>382</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="X39" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38328</v>
       </c>
-      <c r="B40" t="n">
-        <v>83865</v>
-      </c>
-      <c r="C40" t="s">
-        <v>392</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="J40" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s">
-        <v>396</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="X40" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="Y40" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38328</v>
       </c>
-      <c r="B41" t="n">
-        <v>136210</v>
-      </c>
-      <c r="C41" t="s">
-        <v>402</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="J41" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5693,60 +5388,56 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="X41" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="Y41" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38328</v>
       </c>
-      <c r="B42" t="n">
-        <v>69307</v>
-      </c>
-      <c r="C42" t="s">
-        <v>412</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="J42" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5758,60 +5449,56 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="X42" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="Y42" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38328</v>
       </c>
-      <c r="B43" t="n">
-        <v>136211</v>
-      </c>
-      <c r="C43" t="s">
-        <v>421</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5823,129 +5510,123 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="X43" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="Y43" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38328</v>
       </c>
-      <c r="B44" t="n">
-        <v>136212</v>
-      </c>
-      <c r="C44" t="s">
-        <v>430</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="L44" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="O44" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
       <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="X44" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="Y44" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38328</v>
       </c>
-      <c r="B45" t="n">
-        <v>136213</v>
-      </c>
-      <c r="C45" t="s">
-        <v>440</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="J45" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5957,60 +5638,56 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="X45" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="Y45" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38328</v>
       </c>
-      <c r="B46" t="n">
-        <v>136214</v>
-      </c>
-      <c r="C46" t="s">
-        <v>449</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="J46" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="K46" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="L46" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -6022,261 +5699,243 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="X46" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="Y46" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38328</v>
       </c>
-      <c r="B47" t="n">
-        <v>136215</v>
-      </c>
-      <c r="C47" t="s">
-        <v>459</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="J47" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="K47" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="L47" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>1</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>417</v>
+      </c>
+      <c r="X47" t="s">
+        <v>418</v>
+      </c>
       <c r="Y47" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38328</v>
       </c>
-      <c r="B48" t="n">
-        <v>136216</v>
-      </c>
-      <c r="C48" t="s">
-        <v>465</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="J48" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="K48" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="X48" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="Y48" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38328</v>
       </c>
-      <c r="B49" t="n">
-        <v>2379</v>
-      </c>
-      <c r="C49" t="s">
-        <v>474</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="J49" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="K49" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="L49" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>4</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>434</v>
+      </c>
+      <c r="X49" t="s">
+        <v>435</v>
+      </c>
       <c r="Y49" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38328</v>
       </c>
-      <c r="B50" t="n">
-        <v>520</v>
-      </c>
-      <c r="C50" t="s">
-        <v>481</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="J50" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O50" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6288,259 +5947,245 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="X50" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="Y50" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38328</v>
       </c>
-      <c r="B51" t="n">
-        <v>4214</v>
-      </c>
-      <c r="C51" t="s">
-        <v>490</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="K51" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
       <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>487</v>
-      </c>
-      <c r="X51" t="s">
-        <v>488</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38328</v>
       </c>
-      <c r="B52" t="n">
-        <v>136217</v>
-      </c>
-      <c r="C52" t="s">
-        <v>496</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="J52" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="K52" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="O52" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="X52" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="Y52" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38328</v>
       </c>
-      <c r="B53" t="n">
-        <v>136218</v>
-      </c>
-      <c r="C53" t="s">
-        <v>503</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="J53" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="K53" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="L53" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="O53" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>509</v>
-      </c>
-      <c r="X53" t="s">
-        <v>510</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38328</v>
       </c>
-      <c r="B54" t="n">
-        <v>136197</v>
-      </c>
-      <c r="C54" t="s">
-        <v>241</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="O54" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6552,543 +6197,509 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="X54" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="Y54" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38328</v>
       </c>
-      <c r="B55" t="n">
-        <v>136219</v>
-      </c>
-      <c r="C55" t="s">
-        <v>518</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="J55" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>524</v>
+        <v>425</v>
       </c>
       <c r="O55" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
+      <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>470</v>
+      </c>
+      <c r="X55" t="s">
+        <v>471</v>
+      </c>
       <c r="Y55" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38328</v>
       </c>
-      <c r="B56" t="n">
-        <v>136220</v>
-      </c>
-      <c r="C56" t="s">
-        <v>525</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>526</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="J56" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="K56" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
       <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="X56" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
       <c r="Y56" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38328</v>
       </c>
-      <c r="B57" t="n">
-        <v>136221</v>
-      </c>
-      <c r="C57" t="s">
-        <v>534</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="J57" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="K57" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="L57" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="O57" t="s">
-        <v>114</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>3</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
       <c r="X57" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="Y57" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38328</v>
       </c>
-      <c r="B58" t="n">
-        <v>136222</v>
-      </c>
-      <c r="C58" t="s">
-        <v>544</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="J58" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="L58" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>540</v>
+        <v>391</v>
       </c>
       <c r="O58" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>3</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>470</v>
+      </c>
+      <c r="X58" t="s">
+        <v>471</v>
+      </c>
       <c r="Y58" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>38328</v>
       </c>
-      <c r="B59" t="n">
-        <v>10808</v>
-      </c>
-      <c r="C59" t="s">
-        <v>550</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>552</v>
+        <v>499</v>
       </c>
       <c r="J59" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="K59" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
       <c r="L59" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="O59" t="s">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>557</v>
-      </c>
-      <c r="X59" t="s">
-        <v>558</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>38328</v>
       </c>
-      <c r="B60" t="n">
-        <v>136223</v>
-      </c>
-      <c r="C60" t="s">
-        <v>560</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="J60" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="K60" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="L60" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>566</v>
+        <v>442</v>
       </c>
       <c r="O60" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
       <c r="X60" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="Y60" t="s">
-        <v>569</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>38328</v>
       </c>
-      <c r="B61" t="n">
-        <v>136224</v>
-      </c>
-      <c r="C61" t="s">
-        <v>570</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="J61" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="K61" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="L61" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="O61" t="s">
-        <v>74</v>
-      </c>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
       <c r="R61" t="s"/>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="X61" t="s">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="Y61" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>38328</v>
       </c>
-      <c r="B62" t="n">
-        <v>136225</v>
-      </c>
-      <c r="C62" t="s">
-        <v>579</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>580</v>
+        <v>521</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="J62" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="K62" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>517</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
         <v>4</v>
       </c>
-      <c r="N62" t="s">
-        <v>585</v>
-      </c>
-      <c r="O62" t="s">
-        <v>74</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="n">
-        <v>4</v>
-      </c>
-      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -7096,265 +6707,249 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>38328</v>
       </c>
-      <c r="B63" t="n">
-        <v>4737</v>
-      </c>
-      <c r="C63" t="s">
-        <v>586</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="J63" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="K63" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="L63" t="s">
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>585</v>
+        <v>531</v>
       </c>
       <c r="O63" t="s">
-        <v>114</v>
-      </c>
-      <c r="P63" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>532</v>
+      </c>
+      <c r="X63" t="s">
+        <v>533</v>
+      </c>
       <c r="Y63" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>38328</v>
       </c>
-      <c r="B64" t="n">
-        <v>1367</v>
-      </c>
-      <c r="C64" t="s">
-        <v>592</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>593</v>
+        <v>535</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="J64" t="s">
-        <v>595</v>
+        <v>537</v>
       </c>
       <c r="K64" t="s">
-        <v>596</v>
+        <v>538</v>
       </c>
       <c r="L64" t="s">
-        <v>597</v>
+        <v>539</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="O64" t="s">
-        <v>74</v>
-      </c>
-      <c r="P64" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="X64" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="Y64" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>38328</v>
       </c>
-      <c r="B65" t="n">
-        <v>136226</v>
-      </c>
-      <c r="C65" t="s">
-        <v>601</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="J65" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="K65" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
       <c r="L65" t="s">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>607</v>
+        <v>540</v>
       </c>
       <c r="O65" t="s">
-        <v>74</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="X65" t="s">
-        <v>609</v>
+        <v>550</v>
       </c>
       <c r="Y65" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>38328</v>
       </c>
-      <c r="B66" t="n">
-        <v>136227</v>
-      </c>
-      <c r="C66" t="s">
-        <v>611</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="J66" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="K66" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
       <c r="L66" t="s">
-        <v>616</v>
+        <v>556</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="O66" t="s">
-        <v>74</v>
-      </c>
-      <c r="P66" t="s"/>
-      <c r="Q66" t="n">
-        <v>2</v>
-      </c>
-      <c r="R66" t="s"/>
-      <c r="S66" t="n">
-        <v>3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -7362,312 +6957,300 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>616</v>
+        <v>556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>38328</v>
       </c>
-      <c r="B67" t="n">
-        <v>79003</v>
-      </c>
-      <c r="C67" t="s">
-        <v>617</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="J67" t="s">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="K67" t="s">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="L67" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="O67" t="s">
-        <v>64</v>
-      </c>
-      <c r="P67" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
       <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>623</v>
-      </c>
-      <c r="X67" t="s">
-        <v>624</v>
-      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>38328</v>
       </c>
-      <c r="B68" t="n">
-        <v>27883</v>
-      </c>
-      <c r="C68" t="s">
-        <v>626</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
       <c r="J68" t="s">
-        <v>629</v>
+        <v>565</v>
       </c>
       <c r="K68" t="s">
-        <v>630</v>
+        <v>566</v>
       </c>
       <c r="L68" t="s">
-        <v>631</v>
+        <v>567</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>632</v>
+        <v>557</v>
       </c>
       <c r="O68" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>5</v>
-      </c>
+      <c r="U68" t="s"/>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>633</v>
+        <v>568</v>
       </c>
       <c r="X68" t="s">
-        <v>634</v>
+        <v>569</v>
       </c>
       <c r="Y68" t="s">
-        <v>635</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>38328</v>
       </c>
-      <c r="B69" t="n">
-        <v>5371</v>
-      </c>
-      <c r="C69" t="s">
-        <v>636</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
       <c r="J69" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
       <c r="K69" t="s">
-        <v>149</v>
+        <v>574</v>
       </c>
       <c r="L69" t="s">
-        <v>640</v>
+        <v>575</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="s"/>
-      <c r="O69" t="s"/>
-      <c r="P69" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>576</v>
+      </c>
+      <c r="O69" t="s">
+        <v>88</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
       <c r="Q69" t="s"/>
       <c r="R69" t="s"/>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>641</v>
+        <v>577</v>
       </c>
       <c r="X69" t="s">
-        <v>642</v>
+        <v>578</v>
       </c>
       <c r="Y69" t="s">
-        <v>643</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>38328</v>
       </c>
-      <c r="B70" t="n">
-        <v>136228</v>
-      </c>
-      <c r="C70" t="s">
-        <v>644</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="J70" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="K70" t="s">
-        <v>648</v>
+        <v>583</v>
       </c>
       <c r="L70" t="s">
-        <v>649</v>
+        <v>584</v>
       </c>
       <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>557</v>
+      </c>
+      <c r="O70" t="s">
+        <v>88</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
         <v>3</v>
       </c>
-      <c r="N70" t="s">
-        <v>607</v>
-      </c>
-      <c r="O70" t="s">
-        <v>53</v>
-      </c>
-      <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
-      <c r="R70" t="s"/>
-      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>38328</v>
       </c>
-      <c r="B71" t="n">
-        <v>12637</v>
-      </c>
-      <c r="C71" t="s">
-        <v>651</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
       <c r="J71" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
       <c r="K71" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="L71" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>632</v>
+        <v>557</v>
       </c>
       <c r="O71" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7678,119 +7261,121 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
+      <c r="W71" t="s">
+        <v>590</v>
+      </c>
+      <c r="X71" t="s">
+        <v>591</v>
+      </c>
       <c r="Y71" t="s">
-        <v>657</v>
+        <v>592</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>38328</v>
       </c>
-      <c r="B72" t="n">
-        <v>27323</v>
-      </c>
-      <c r="C72" t="s">
-        <v>658</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>659</v>
+        <v>593</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>660</v>
+        <v>594</v>
       </c>
       <c r="J72" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
       <c r="K72" t="s">
-        <v>662</v>
+        <v>596</v>
       </c>
       <c r="L72" t="s">
-        <v>663</v>
+        <v>597</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="O72" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
-      <c r="R72" t="s"/>
-      <c r="S72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
       <c r="T72" t="s"/>
-      <c r="U72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
+      <c r="W72" t="s">
+        <v>599</v>
+      </c>
+      <c r="X72" t="s">
+        <v>600</v>
+      </c>
       <c r="Y72" t="s">
-        <v>663</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>38328</v>
       </c>
-      <c r="B73" t="n">
-        <v>136229</v>
-      </c>
-      <c r="C73" t="s">
-        <v>664</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>665</v>
+        <v>602</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>666</v>
+        <v>603</v>
       </c>
       <c r="J73" t="s">
-        <v>667</v>
+        <v>604</v>
       </c>
       <c r="K73" t="s">
-        <v>668</v>
+        <v>171</v>
       </c>
       <c r="L73" t="s">
-        <v>669</v>
+        <v>605</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
-      <c r="N73" t="s">
-        <v>670</v>
-      </c>
-      <c r="O73" t="s">
-        <v>74</v>
-      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
       <c r="R73" t="s"/>
@@ -7801,60 +7386,56 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>671</v>
+        <v>606</v>
       </c>
       <c r="X73" t="s">
-        <v>672</v>
+        <v>607</v>
       </c>
       <c r="Y73" t="s">
-        <v>673</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>38328</v>
       </c>
-      <c r="B74" t="n">
-        <v>136230</v>
-      </c>
-      <c r="C74" t="s">
-        <v>674</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>675</v>
+        <v>609</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>676</v>
+        <v>610</v>
       </c>
       <c r="J74" t="s">
-        <v>677</v>
+        <v>611</v>
       </c>
       <c r="K74" t="s">
-        <v>678</v>
+        <v>612</v>
       </c>
       <c r="L74" t="s">
-        <v>679</v>
+        <v>613</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>670</v>
+        <v>576</v>
       </c>
       <c r="O74" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7865,61 +7446,53 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s">
-        <v>680</v>
-      </c>
-      <c r="X74" t="s">
-        <v>681</v>
-      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>682</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>38328</v>
       </c>
-      <c r="B75" t="n">
-        <v>136231</v>
-      </c>
-      <c r="C75" t="s">
-        <v>683</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>684</v>
+        <v>615</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>685</v>
+        <v>616</v>
       </c>
       <c r="J75" t="s">
-        <v>686</v>
+        <v>617</v>
       </c>
       <c r="K75" t="s">
-        <v>687</v>
+        <v>618</v>
       </c>
       <c r="L75" t="s">
-        <v>688</v>
+        <v>619</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="O75" t="s">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7930,61 +7503,53 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s">
-        <v>689</v>
-      </c>
-      <c r="X75" t="s">
-        <v>690</v>
-      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>691</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>38328</v>
       </c>
-      <c r="B76" t="n">
-        <v>7041</v>
-      </c>
-      <c r="C76" t="s">
-        <v>692</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>693</v>
+        <v>621</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>694</v>
+        <v>622</v>
       </c>
       <c r="J76" t="s">
-        <v>695</v>
+        <v>623</v>
       </c>
       <c r="K76" t="s">
-        <v>696</v>
+        <v>624</v>
       </c>
       <c r="L76" t="s">
-        <v>697</v>
+        <v>625</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>698</v>
+        <v>598</v>
       </c>
       <c r="O76" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7995,341 +7560,301 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s">
-        <v>699</v>
-      </c>
-      <c r="X76" t="s">
-        <v>700</v>
-      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>701</v>
+        <v>625</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>38328</v>
       </c>
-      <c r="B77" t="n">
-        <v>136232</v>
-      </c>
-      <c r="C77" t="s">
-        <v>702</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>703</v>
+        <v>626</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>704</v>
+        <v>627</v>
       </c>
       <c r="J77" t="s">
-        <v>705</v>
+        <v>628</v>
       </c>
       <c r="K77" t="s">
-        <v>706</v>
+        <v>629</v>
       </c>
       <c r="L77" t="s">
-        <v>707</v>
+        <v>630</v>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>708</v>
+        <v>631</v>
       </c>
       <c r="O77" t="s">
-        <v>74</v>
-      </c>
-      <c r="P77" t="n">
-        <v>3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
       <c r="R77" t="s"/>
-      <c r="S77" t="n">
-        <v>5</v>
-      </c>
+      <c r="S77" t="s"/>
       <c r="T77" t="s"/>
-      <c r="U77" t="n">
-        <v>4</v>
-      </c>
+      <c r="U77" t="s"/>
       <c r="V77" t="n">
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>709</v>
+        <v>632</v>
       </c>
       <c r="X77" t="s">
-        <v>710</v>
+        <v>633</v>
       </c>
       <c r="Y77" t="s">
-        <v>711</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>38328</v>
       </c>
-      <c r="B78" t="n">
-        <v>136233</v>
-      </c>
-      <c r="C78" t="s">
-        <v>712</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>714</v>
+        <v>636</v>
       </c>
       <c r="J78" t="s">
-        <v>715</v>
+        <v>637</v>
       </c>
       <c r="K78" t="s">
-        <v>716</v>
+        <v>638</v>
       </c>
       <c r="L78" t="s">
-        <v>717</v>
+        <v>639</v>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>718</v>
+        <v>631</v>
       </c>
       <c r="O78" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
-      <c r="R78" t="n">
-        <v>5</v>
-      </c>
+      <c r="R78" t="s"/>
       <c r="S78" t="s"/>
       <c r="T78" t="s"/>
-      <c r="U78" t="n">
-        <v>5</v>
-      </c>
+      <c r="U78" t="s"/>
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
+      <c r="W78" t="s">
+        <v>640</v>
+      </c>
+      <c r="X78" t="s">
+        <v>641</v>
+      </c>
       <c r="Y78" t="s">
-        <v>717</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>38328</v>
       </c>
-      <c r="B79" t="n">
-        <v>136234</v>
-      </c>
-      <c r="C79" t="s">
-        <v>719</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>720</v>
+        <v>643</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>721</v>
+        <v>644</v>
       </c>
       <c r="J79" t="s">
-        <v>722</v>
+        <v>645</v>
       </c>
       <c r="K79" t="s">
-        <v>723</v>
+        <v>646</v>
       </c>
       <c r="L79" t="s">
-        <v>724</v>
+        <v>647</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>725</v>
+        <v>631</v>
       </c>
       <c r="O79" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
-      <c r="R79" t="n">
-        <v>5</v>
-      </c>
-      <c r="S79" t="n">
-        <v>5</v>
-      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
       <c r="T79" t="s"/>
-      <c r="U79" t="n">
-        <v>5</v>
-      </c>
+      <c r="U79" t="s"/>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>726</v>
+        <v>648</v>
       </c>
       <c r="X79" t="s">
-        <v>727</v>
+        <v>649</v>
       </c>
       <c r="Y79" t="s">
-        <v>728</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>38328</v>
       </c>
-      <c r="B80" t="n">
-        <v>136235</v>
-      </c>
-      <c r="C80" t="s">
-        <v>729</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>730</v>
+        <v>651</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
-        <v>731</v>
+        <v>652</v>
       </c>
       <c r="J80" t="s">
-        <v>732</v>
+        <v>653</v>
       </c>
       <c r="K80" t="s">
-        <v>733</v>
+        <v>654</v>
       </c>
       <c r="L80" t="s">
-        <v>734</v>
+        <v>655</v>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>735</v>
+        <v>656</v>
       </c>
       <c r="O80" t="s">
-        <v>114</v>
-      </c>
-      <c r="P80" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
-      <c r="R80" t="n">
-        <v>5</v>
-      </c>
+      <c r="R80" t="s"/>
       <c r="S80" t="s"/>
       <c r="T80" t="s"/>
-      <c r="U80" t="n">
-        <v>5</v>
-      </c>
+      <c r="U80" t="s"/>
       <c r="V80" t="n">
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>736</v>
+        <v>657</v>
       </c>
       <c r="X80" t="s">
-        <v>737</v>
+        <v>658</v>
       </c>
       <c r="Y80" t="s">
-        <v>738</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>38328</v>
       </c>
-      <c r="B81" t="n">
-        <v>83790</v>
-      </c>
-      <c r="C81" t="s">
-        <v>739</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I81" t="s">
-        <v>741</v>
+        <v>661</v>
       </c>
       <c r="J81" t="s">
-        <v>742</v>
+        <v>662</v>
       </c>
       <c r="K81" t="s">
-        <v>743</v>
+        <v>663</v>
       </c>
       <c r="L81" t="s">
-        <v>744</v>
+        <v>664</v>
       </c>
       <c r="M81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>735</v>
+        <v>665</v>
       </c>
       <c r="O81" t="s">
-        <v>114</v>
-      </c>
-      <c r="P81" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
       <c r="Q81" t="s"/>
       <c r="R81" t="s"/>
       <c r="S81" t="n">
@@ -8337,289 +7862,533 @@
       </c>
       <c r="T81" t="s"/>
       <c r="U81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>745</v>
+        <v>666</v>
       </c>
       <c r="X81" t="s">
-        <v>746</v>
+        <v>667</v>
       </c>
       <c r="Y81" t="s">
-        <v>747</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>38328</v>
       </c>
-      <c r="B82" t="n">
-        <v>136236</v>
-      </c>
-      <c r="C82" t="s">
-        <v>748</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>749</v>
+        <v>669</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="J82" t="s">
-        <v>751</v>
+        <v>671</v>
       </c>
       <c r="K82" t="s">
-        <v>752</v>
+        <v>672</v>
       </c>
       <c r="L82" t="s">
-        <v>753</v>
+        <v>673</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
       <c r="O82" t="s">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
-      <c r="R82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
       <c r="S82" t="s"/>
       <c r="T82" t="s"/>
-      <c r="U82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s">
-        <v>754</v>
-      </c>
-      <c r="X82" t="s">
-        <v>755</v>
-      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>38328</v>
       </c>
-      <c r="B83" t="n">
-        <v>6841</v>
-      </c>
-      <c r="C83" t="s">
-        <v>757</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>758</v>
+        <v>675</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>759</v>
+        <v>676</v>
       </c>
       <c r="J83" t="s">
-        <v>760</v>
+        <v>677</v>
       </c>
       <c r="K83" t="s">
-        <v>761</v>
+        <v>678</v>
       </c>
       <c r="L83" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="M83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>763</v>
+        <v>680</v>
       </c>
       <c r="O83" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P83" t="s"/>
-      <c r="Q83" t="n">
-        <v>4</v>
-      </c>
-      <c r="R83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
       <c r="S83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T83" t="s"/>
       <c r="U83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="X83" t="s">
-        <v>765</v>
+        <v>682</v>
       </c>
       <c r="Y83" t="s">
-        <v>766</v>
+        <v>683</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>38328</v>
       </c>
-      <c r="B84" t="n">
-        <v>136237</v>
-      </c>
-      <c r="C84" t="s">
-        <v>767</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>768</v>
+        <v>684</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>769</v>
+        <v>685</v>
       </c>
       <c r="J84" t="s">
-        <v>770</v>
+        <v>686</v>
       </c>
       <c r="K84" t="s">
-        <v>771</v>
+        <v>687</v>
       </c>
       <c r="L84" t="s">
-        <v>772</v>
+        <v>688</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>773</v>
+        <v>689</v>
       </c>
       <c r="O84" t="s">
-        <v>114</v>
-      </c>
-      <c r="P84" t="s"/>
-      <c r="Q84" t="n">
-        <v>1</v>
-      </c>
-      <c r="R84" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
       <c r="S84" t="s"/>
       <c r="T84" t="s"/>
       <c r="U84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>774</v>
+        <v>690</v>
       </c>
       <c r="X84" t="s">
-        <v>775</v>
+        <v>691</v>
       </c>
       <c r="Y84" t="s">
-        <v>776</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>38328</v>
       </c>
-      <c r="B85" t="n">
-        <v>136238</v>
-      </c>
-      <c r="C85" t="s">
-        <v>777</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>778</v>
+        <v>693</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>779</v>
+        <v>694</v>
       </c>
       <c r="J85" t="s">
-        <v>780</v>
+        <v>695</v>
       </c>
       <c r="K85" t="s">
-        <v>781</v>
+        <v>696</v>
       </c>
       <c r="L85" t="s">
-        <v>782</v>
+        <v>697</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>773</v>
+        <v>689</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
       <c r="R85" t="s"/>
       <c r="S85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T85" t="s"/>
       <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>698</v>
+      </c>
+      <c r="X85" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38328</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>701</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>702</v>
+      </c>
+      <c r="J86" t="s">
+        <v>703</v>
+      </c>
+      <c r="K86" t="s">
+        <v>704</v>
+      </c>
+      <c r="L86" t="s">
+        <v>705</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>689</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>706</v>
+      </c>
+      <c r="X86" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38328</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>709</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>710</v>
+      </c>
+      <c r="J87" t="s">
+        <v>711</v>
+      </c>
+      <c r="K87" t="s">
+        <v>712</v>
+      </c>
+      <c r="L87" t="s">
+        <v>713</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>714</v>
+      </c>
+      <c r="O87" t="s">
+        <v>88</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>715</v>
+      </c>
+      <c r="X87" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38328</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>718</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>719</v>
+      </c>
+      <c r="J88" t="s">
+        <v>720</v>
+      </c>
+      <c r="K88" t="s">
+        <v>721</v>
+      </c>
+      <c r="L88" t="s">
+        <v>722</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>723</v>
+      </c>
+      <c r="O88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>724</v>
+      </c>
+      <c r="X88" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38328</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>727</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>728</v>
+      </c>
+      <c r="J89" t="s">
+        <v>729</v>
+      </c>
+      <c r="K89" t="s">
+        <v>730</v>
+      </c>
+      <c r="L89" t="s">
+        <v>731</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>723</v>
+      </c>
+      <c r="O89" t="s">
+        <v>97</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
         <v>3</v>
       </c>
-      <c r="V85" t="n">
-        <v>0</v>
-      </c>
-      <c r="W85" t="s"/>
-      <c r="X85" t="s"/>
-      <c r="Y85" t="s">
-        <v>783</v>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
